--- a/Oil price information/2555.xlsx
+++ b/Oil price information/2555.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptydvp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B74AD76-EA7E-174F-B1EB-858F7C19AA74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C91A932-D43B-42DB-B910-EA34E6E94DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19464" activeTab="1" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2555" sheetId="1" r:id="rId1"/>
+    <sheet name="ค่าเฉลี่ยราคาน้ำมันแต่ละเดือน" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>วว/ดด/ปป</t>
   </si>
@@ -107,14 +108,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +127,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -393,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,15 +480,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,6 +499,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -834,32 +859,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624B7881-4D5C-0745-8D44-E6A170A96F56}">
   <dimension ref="A1:M366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A352" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="17" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="17"/>
-    <col min="8" max="8" width="12.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="17"/>
-    <col min="11" max="11" width="13.1640625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="21.453125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="13.6328125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="17"/>
+    <col min="8" max="8" width="12.36328125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="17"/>
+    <col min="11" max="11" width="13.1796875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" style="17" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" style="17" customWidth="1"/>
+    <col min="18" max="16384" width="10.81640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1">
+    <row r="1" spans="1:13" ht="15.6" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -879,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1">
+    <row r="2" spans="1:13" ht="19.05" customHeight="1">
       <c r="A2" s="3">
         <v>239236</v>
       </c>
@@ -899,16 +924,16 @@
         <v>29.39</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>239237</v>
       </c>
@@ -928,14 +953,14 @@
         <v>29.39</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" ht="19">
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.399999999999999">
       <c r="A4" s="6">
         <v>239238</v>
       </c>
@@ -957,7 +982,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="19" customHeight="1">
+    <row r="5" spans="1:13" ht="19.05" customHeight="1">
       <c r="A5" s="6">
         <v>239239</v>
       </c>
@@ -977,16 +1002,16 @@
         <v>29.39</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="1:13" ht="19" customHeight="1">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.05" customHeight="1">
       <c r="A6" s="6">
         <v>239240</v>
       </c>
@@ -1006,14 +1031,14 @@
         <v>29.39</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" thickBot="1">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" s="6">
         <v>239241</v>
       </c>
@@ -1036,7 +1061,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="20" thickBot="1">
+    <row r="8" spans="1:13" ht="18" thickBot="1">
       <c r="A8" s="6">
         <v>239242</v>
       </c>
@@ -1075,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19">
+    <row r="9" spans="1:13" ht="17.399999999999999">
       <c r="A9" s="6">
         <v>239243</v>
       </c>
@@ -1119,7 +1144,7 @@
         <v>30.510645161290324</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19">
+    <row r="10" spans="1:13" ht="17.399999999999999">
       <c r="A10" s="6">
         <v>239244</v>
       </c>
@@ -1163,7 +1188,7 @@
         <v>31.297857142857147</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19">
+    <row r="11" spans="1:13" ht="17.399999999999999">
       <c r="A11" s="6">
         <v>239245</v>
       </c>
@@ -1207,7 +1232,7 @@
         <v>32.11709677419357</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19">
+    <row r="12" spans="1:13" ht="17.399999999999999">
       <c r="A12" s="6">
         <v>239246</v>
       </c>
@@ -1251,7 +1276,7 @@
         <v>31.993333333333322</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19">
+    <row r="13" spans="1:13" ht="17.399999999999999">
       <c r="A13" s="6">
         <v>239247</v>
       </c>
@@ -1295,7 +1320,7 @@
         <v>30.510645161290334</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19">
+    <row r="14" spans="1:13" ht="17.399999999999999">
       <c r="A14" s="6">
         <v>239248</v>
       </c>
@@ -1339,7 +1364,7 @@
         <v>29.579999999999981</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19">
+    <row r="15" spans="1:13" ht="17.399999999999999">
       <c r="A15" s="6">
         <v>239249</v>
       </c>
@@ -1383,7 +1408,7 @@
         <v>29.73645161290322</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19">
+    <row r="16" spans="1:13" ht="17.399999999999999">
       <c r="A16" s="6">
         <v>239250</v>
       </c>
@@ -1427,7 +1452,7 @@
         <v>29.885483870967747</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19">
+    <row r="17" spans="1:13" ht="17.399999999999999">
       <c r="A17" s="6">
         <v>239251</v>
       </c>
@@ -1471,7 +1496,7 @@
         <v>29.929999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19">
+    <row r="18" spans="1:13" ht="17.399999999999999">
       <c r="A18" s="6">
         <v>239252</v>
       </c>
@@ -1515,7 +1540,7 @@
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19">
+    <row r="19" spans="1:13" ht="17.399999999999999">
       <c r="A19" s="6">
         <v>239253</v>
       </c>
@@ -1559,7 +1584,7 @@
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="20" thickBot="1">
+    <row r="20" spans="1:13" ht="18" thickBot="1">
       <c r="A20" s="6">
         <v>239254</v>
       </c>
@@ -1582,28 +1607,28 @@
       <c r="H20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="29">
         <f>AVERAGE(B336:B366)</f>
         <v>35.089677419354842</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="29">
         <f t="shared" ref="J20:M20" si="11">AVERAGE(C336:C366)</f>
         <v>37.539677419354845</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="29">
         <f t="shared" si="11"/>
         <v>32.089677419354835</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="29">
         <f t="shared" si="11"/>
         <v>21.505806451612891</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="30">
         <f t="shared" si="11"/>
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19">
+    <row r="21" spans="1:13" ht="17.399999999999999">
       <c r="A21" s="6">
         <v>239255</v>
       </c>
@@ -1626,7 +1651,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="19">
+    <row r="22" spans="1:13" ht="17.399999999999999">
       <c r="A22" s="6">
         <v>239256</v>
       </c>
@@ -1646,16 +1671,16 @@
         <v>31.13</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" ht="19">
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.399999999999999">
       <c r="A23" s="6">
         <v>239257</v>
       </c>
@@ -1675,14 +1700,14 @@
         <v>31.13</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" ht="20" thickBot="1">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" thickBot="1">
       <c r="A24" s="6">
         <v>239258</v>
       </c>
@@ -1703,7 +1728,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="20" thickBot="1">
+    <row r="25" spans="1:13" ht="18" thickBot="1">
       <c r="A25" s="6">
         <v>239259</v>
       </c>
@@ -1723,10 +1748,10 @@
         <v>31.13</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="31" t="s">
         <v>1</v>
       </c>
       <c r="J25" s="20" t="s">
@@ -1742,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="20" thickBot="1">
+    <row r="26" spans="1:13" ht="18" thickBot="1">
       <c r="A26" s="6">
         <v>239260</v>
       </c>
@@ -1762,31 +1787,31 @@
         <v>31.13</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="34">
         <f>AVERAGE(B2:B366)</f>
         <v>35.933506849315009</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="34">
         <f>AVERAGE(C2:C366)</f>
         <v>37.950082191780545</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="34">
         <f>AVERAGE(D2:D366)</f>
         <v>34.333506849315015</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="34">
         <f>AVERAGE(E2:E366)</f>
         <v>22.222821917808151</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="35">
         <f>AVERAGE(F2:F366)</f>
         <v>30.404630136986491</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19">
+    <row r="27" spans="1:13" ht="17.399999999999999">
       <c r="A27" s="6">
         <v>239261</v>
       </c>
@@ -1809,7 +1834,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="19">
+    <row r="28" spans="1:13" ht="17.399999999999999">
       <c r="A28" s="6">
         <v>239262</v>
       </c>
@@ -1832,7 +1857,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="19">
+    <row r="29" spans="1:13" ht="17.399999999999999">
       <c r="A29" s="6">
         <v>239263</v>
       </c>
@@ -1855,7 +1880,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="19">
+    <row r="30" spans="1:13" ht="17.399999999999999">
       <c r="A30" s="6">
         <v>239264</v>
       </c>
@@ -1878,7 +1903,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="19">
+    <row r="31" spans="1:13" ht="17.399999999999999">
       <c r="A31" s="6">
         <v>239265</v>
       </c>
@@ -1900,7 +1925,7 @@
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="20" thickBot="1">
+    <row r="32" spans="1:13" ht="18" thickBot="1">
       <c r="A32" s="8">
         <v>239266</v>
       </c>
@@ -1922,7 +1947,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="19">
+    <row r="33" spans="1:9" ht="17.399999999999999">
       <c r="A33" s="3">
         <v>239267</v>
       </c>
@@ -1945,7 +1970,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="19">
+    <row r="34" spans="1:9" ht="17.399999999999999">
       <c r="A34" s="6">
         <v>239268</v>
       </c>
@@ -1968,7 +1993,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="19">
+    <row r="35" spans="1:9" ht="17.399999999999999">
       <c r="A35" s="6">
         <v>239269</v>
       </c>
@@ -1991,7 +2016,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="19">
+    <row r="36" spans="1:9" ht="17.399999999999999">
       <c r="A36" s="6">
         <v>239270</v>
       </c>
@@ -2014,7 +2039,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="19">
+    <row r="37" spans="1:9" ht="17.399999999999999">
       <c r="A37" s="6">
         <v>239271</v>
       </c>
@@ -2037,7 +2062,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="19">
+    <row r="38" spans="1:9" ht="17.399999999999999">
       <c r="A38" s="6">
         <v>239272</v>
       </c>
@@ -2060,7 +2085,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="19">
+    <row r="39" spans="1:9" ht="17.399999999999999">
       <c r="A39" s="6">
         <v>239273</v>
       </c>
@@ -2083,7 +2108,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="19">
+    <row r="40" spans="1:9" ht="17.399999999999999">
       <c r="A40" s="6">
         <v>239274</v>
       </c>
@@ -2106,7 +2131,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="19">
+    <row r="41" spans="1:9" ht="17.399999999999999">
       <c r="A41" s="6">
         <v>239275</v>
       </c>
@@ -2129,7 +2154,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="19">
+    <row r="42" spans="1:9" ht="17.399999999999999">
       <c r="A42" s="6">
         <v>239276</v>
       </c>
@@ -2152,7 +2177,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="19">
+    <row r="43" spans="1:9" ht="17.399999999999999">
       <c r="A43" s="6">
         <v>239277</v>
       </c>
@@ -2175,7 +2200,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="19">
+    <row r="44" spans="1:9" ht="17.399999999999999">
       <c r="A44" s="6">
         <v>239278</v>
       </c>
@@ -2198,7 +2223,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="19">
+    <row r="45" spans="1:9" ht="17.399999999999999">
       <c r="A45" s="6">
         <v>239279</v>
       </c>
@@ -2221,7 +2246,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="19">
+    <row r="46" spans="1:9" ht="17.399999999999999">
       <c r="A46" s="6">
         <v>239280</v>
       </c>
@@ -2244,7 +2269,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="19">
+    <row r="47" spans="1:9" ht="17.399999999999999">
       <c r="A47" s="6">
         <v>239281</v>
       </c>
@@ -2267,7 +2292,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="19">
+    <row r="48" spans="1:9" ht="17.399999999999999">
       <c r="A48" s="6">
         <v>239282</v>
       </c>
@@ -2290,7 +2315,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="19">
+    <row r="49" spans="1:9" ht="17.399999999999999">
       <c r="A49" s="6">
         <v>239283</v>
       </c>
@@ -2313,7 +2338,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="19">
+    <row r="50" spans="1:9" ht="17.399999999999999">
       <c r="A50" s="6">
         <v>239284</v>
       </c>
@@ -2336,7 +2361,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="19">
+    <row r="51" spans="1:9" ht="17.399999999999999">
       <c r="A51" s="6">
         <v>239285</v>
       </c>
@@ -2359,7 +2384,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="19">
+    <row r="52" spans="1:9" ht="17.399999999999999">
       <c r="A52" s="6">
         <v>239286</v>
       </c>
@@ -2382,7 +2407,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="19">
+    <row r="53" spans="1:9" ht="17.399999999999999">
       <c r="A53" s="6">
         <v>239287</v>
       </c>
@@ -2405,7 +2430,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="19">
+    <row r="54" spans="1:9" ht="17.399999999999999">
       <c r="A54" s="6">
         <v>239288</v>
       </c>
@@ -2428,7 +2453,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="19">
+    <row r="55" spans="1:9" ht="17.399999999999999">
       <c r="A55" s="6">
         <v>239289</v>
       </c>
@@ -2451,7 +2476,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="19">
+    <row r="56" spans="1:9" ht="17.399999999999999">
       <c r="A56" s="6">
         <v>239290</v>
       </c>
@@ -2473,7 +2498,7 @@
       <c r="G56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="19">
+    <row r="57" spans="1:9" ht="17.399999999999999">
       <c r="A57" s="6">
         <v>239291</v>
       </c>
@@ -2493,7 +2518,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="19">
+    <row r="58" spans="1:9" ht="17.399999999999999">
       <c r="A58" s="6">
         <v>239292</v>
       </c>
@@ -2513,7 +2538,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="19">
+    <row r="59" spans="1:9" ht="17.399999999999999">
       <c r="A59" s="6">
         <v>239293</v>
       </c>
@@ -2533,7 +2558,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20" thickBot="1">
+    <row r="60" spans="1:9" ht="18" thickBot="1">
       <c r="A60" s="8">
         <v>239294</v>
       </c>
@@ -2553,7 +2578,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="19">
+    <row r="61" spans="1:9" ht="17.399999999999999">
       <c r="A61" s="3">
         <v>239295</v>
       </c>
@@ -2573,7 +2598,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="19">
+    <row r="62" spans="1:9" ht="17.399999999999999">
       <c r="A62" s="6">
         <v>239296</v>
       </c>
@@ -2593,7 +2618,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="19">
+    <row r="63" spans="1:9" ht="17.399999999999999">
       <c r="A63" s="6">
         <v>239297</v>
       </c>
@@ -2613,7 +2638,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="19">
+    <row r="64" spans="1:9" ht="17.399999999999999">
       <c r="A64" s="6">
         <v>239298</v>
       </c>
@@ -2633,7 +2658,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="19">
+    <row r="65" spans="1:6" ht="17.399999999999999">
       <c r="A65" s="6">
         <v>239299</v>
       </c>
@@ -2653,7 +2678,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="19">
+    <row r="66" spans="1:6" ht="17.399999999999999">
       <c r="A66" s="6">
         <v>239300</v>
       </c>
@@ -2673,7 +2698,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="19">
+    <row r="67" spans="1:6" ht="17.399999999999999">
       <c r="A67" s="6">
         <v>239301</v>
       </c>
@@ -2693,7 +2718,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="19">
+    <row r="68" spans="1:6" ht="17.399999999999999">
       <c r="A68" s="6">
         <v>239302</v>
       </c>
@@ -2713,7 +2738,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="19">
+    <row r="69" spans="1:6" ht="17.399999999999999">
       <c r="A69" s="6">
         <v>239303</v>
       </c>
@@ -2733,7 +2758,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="19">
+    <row r="70" spans="1:6" ht="17.399999999999999">
       <c r="A70" s="6">
         <v>239304</v>
       </c>
@@ -2753,7 +2778,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="19">
+    <row r="71" spans="1:6" ht="17.399999999999999">
       <c r="A71" s="6">
         <v>239305</v>
       </c>
@@ -2773,7 +2798,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="19">
+    <row r="72" spans="1:6" ht="17.399999999999999">
       <c r="A72" s="6">
         <v>239306</v>
       </c>
@@ -2793,7 +2818,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="19">
+    <row r="73" spans="1:6" ht="17.399999999999999">
       <c r="A73" s="6">
         <v>239307</v>
       </c>
@@ -2813,7 +2838,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="19">
+    <row r="74" spans="1:6" ht="17.399999999999999">
       <c r="A74" s="6">
         <v>239308</v>
       </c>
@@ -2833,7 +2858,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="19">
+    <row r="75" spans="1:6" ht="17.399999999999999">
       <c r="A75" s="6">
         <v>239309</v>
       </c>
@@ -2853,7 +2878,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="19">
+    <row r="76" spans="1:6" ht="17.399999999999999">
       <c r="A76" s="6">
         <v>239310</v>
       </c>
@@ -2873,7 +2898,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="19">
+    <row r="77" spans="1:6" ht="17.399999999999999">
       <c r="A77" s="6">
         <v>239311</v>
       </c>
@@ -2893,7 +2918,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="19">
+    <row r="78" spans="1:6" ht="17.399999999999999">
       <c r="A78" s="6">
         <v>239312</v>
       </c>
@@ -2913,7 +2938,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="19">
+    <row r="79" spans="1:6" ht="17.399999999999999">
       <c r="A79" s="6">
         <v>239313</v>
       </c>
@@ -2933,7 +2958,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="19">
+    <row r="80" spans="1:6" ht="17.399999999999999">
       <c r="A80" s="6">
         <v>239314</v>
       </c>
@@ -2953,7 +2978,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="19">
+    <row r="81" spans="1:6" ht="17.399999999999999">
       <c r="A81" s="6">
         <v>239315</v>
       </c>
@@ -2973,7 +2998,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="19">
+    <row r="82" spans="1:6" ht="17.399999999999999">
       <c r="A82" s="6">
         <v>239316</v>
       </c>
@@ -2993,7 +3018,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="19">
+    <row r="83" spans="1:6" ht="17.399999999999999">
       <c r="A83" s="6">
         <v>239317</v>
       </c>
@@ -3013,7 +3038,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="19">
+    <row r="84" spans="1:6" ht="17.399999999999999">
       <c r="A84" s="6">
         <v>239318</v>
       </c>
@@ -3033,7 +3058,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="19">
+    <row r="85" spans="1:6" ht="17.399999999999999">
       <c r="A85" s="6">
         <v>239319</v>
       </c>
@@ -3053,7 +3078,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="19">
+    <row r="86" spans="1:6" ht="17.399999999999999">
       <c r="A86" s="6">
         <v>239320</v>
       </c>
@@ -3073,7 +3098,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="19">
+    <row r="87" spans="1:6" ht="17.399999999999999">
       <c r="A87" s="6">
         <v>239321</v>
       </c>
@@ -3093,7 +3118,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="19">
+    <row r="88" spans="1:6" ht="17.399999999999999">
       <c r="A88" s="6">
         <v>239322</v>
       </c>
@@ -3113,7 +3138,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="19">
+    <row r="89" spans="1:6" ht="17.399999999999999">
       <c r="A89" s="6">
         <v>239323</v>
       </c>
@@ -3133,7 +3158,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="19">
+    <row r="90" spans="1:6" ht="17.399999999999999">
       <c r="A90" s="6">
         <v>239324</v>
       </c>
@@ -3153,7 +3178,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20" thickBot="1">
+    <row r="91" spans="1:6" ht="18" thickBot="1">
       <c r="A91" s="8">
         <v>239325</v>
       </c>
@@ -3173,7 +3198,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="19">
+    <row r="92" spans="1:6" ht="17.399999999999999">
       <c r="A92" s="3">
         <v>239326</v>
       </c>
@@ -3193,7 +3218,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="19">
+    <row r="93" spans="1:6" ht="17.399999999999999">
       <c r="A93" s="6">
         <v>239327</v>
       </c>
@@ -3213,7 +3238,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="19">
+    <row r="94" spans="1:6" ht="17.399999999999999">
       <c r="A94" s="6">
         <v>239328</v>
       </c>
@@ -3233,7 +3258,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="19">
+    <row r="95" spans="1:6" ht="17.399999999999999">
       <c r="A95" s="6">
         <v>239329</v>
       </c>
@@ -3253,7 +3278,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="19">
+    <row r="96" spans="1:6" ht="17.399999999999999">
       <c r="A96" s="6">
         <v>239330</v>
       </c>
@@ -3273,7 +3298,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="19">
+    <row r="97" spans="1:6" ht="17.399999999999999">
       <c r="A97" s="6">
         <v>239331</v>
       </c>
@@ -3293,7 +3318,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="19">
+    <row r="98" spans="1:6" ht="17.399999999999999">
       <c r="A98" s="6">
         <v>239332</v>
       </c>
@@ -3313,7 +3338,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="19">
+    <row r="99" spans="1:6" ht="17.399999999999999">
       <c r="A99" s="6">
         <v>239333</v>
       </c>
@@ -3333,7 +3358,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="19">
+    <row r="100" spans="1:6" ht="17.399999999999999">
       <c r="A100" s="6">
         <v>239334</v>
       </c>
@@ -3353,7 +3378,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="19">
+    <row r="101" spans="1:6" ht="17.399999999999999">
       <c r="A101" s="6">
         <v>239335</v>
       </c>
@@ -3373,7 +3398,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="19">
+    <row r="102" spans="1:6" ht="17.399999999999999">
       <c r="A102" s="6">
         <v>239336</v>
       </c>
@@ -3393,7 +3418,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="19">
+    <row r="103" spans="1:6" ht="17.399999999999999">
       <c r="A103" s="6">
         <v>239337</v>
       </c>
@@ -3413,7 +3438,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="19">
+    <row r="104" spans="1:6" ht="17.399999999999999">
       <c r="A104" s="6">
         <v>239338</v>
       </c>
@@ -3433,7 +3458,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="19">
+    <row r="105" spans="1:6" ht="17.399999999999999">
       <c r="A105" s="6">
         <v>239339</v>
       </c>
@@ -3453,7 +3478,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="19">
+    <row r="106" spans="1:6" ht="17.399999999999999">
       <c r="A106" s="6">
         <v>239340</v>
       </c>
@@ -3473,7 +3498,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="19">
+    <row r="107" spans="1:6" ht="17.399999999999999">
       <c r="A107" s="6">
         <v>239341</v>
       </c>
@@ -3493,7 +3518,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="19">
+    <row r="108" spans="1:6" ht="17.399999999999999">
       <c r="A108" s="6">
         <v>239342</v>
       </c>
@@ -3513,7 +3538,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="19">
+    <row r="109" spans="1:6" ht="17.399999999999999">
       <c r="A109" s="6">
         <v>239343</v>
       </c>
@@ -3533,7 +3558,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="19">
+    <row r="110" spans="1:6" ht="17.399999999999999">
       <c r="A110" s="6">
         <v>239344</v>
       </c>
@@ -3553,7 +3578,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="19">
+    <row r="111" spans="1:6" ht="17.399999999999999">
       <c r="A111" s="6">
         <v>239345</v>
       </c>
@@ -3573,7 +3598,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="19">
+    <row r="112" spans="1:6" ht="17.399999999999999">
       <c r="A112" s="6">
         <v>239346</v>
       </c>
@@ -3593,7 +3618,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="19">
+    <row r="113" spans="1:6" ht="17.399999999999999">
       <c r="A113" s="6">
         <v>239347</v>
       </c>
@@ -3613,7 +3638,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="19">
+    <row r="114" spans="1:6" ht="17.399999999999999">
       <c r="A114" s="6">
         <v>239348</v>
       </c>
@@ -3633,7 +3658,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="19">
+    <row r="115" spans="1:6" ht="17.399999999999999">
       <c r="A115" s="6">
         <v>239349</v>
       </c>
@@ -3653,7 +3678,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="19">
+    <row r="116" spans="1:6" ht="17.399999999999999">
       <c r="A116" s="6">
         <v>239350</v>
       </c>
@@ -3673,7 +3698,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="19">
+    <row r="117" spans="1:6" ht="17.399999999999999">
       <c r="A117" s="6">
         <v>239351</v>
       </c>
@@ -3693,7 +3718,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="19">
+    <row r="118" spans="1:6" ht="17.399999999999999">
       <c r="A118" s="6">
         <v>239352</v>
       </c>
@@ -3713,7 +3738,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="19">
+    <row r="119" spans="1:6" ht="17.399999999999999">
       <c r="A119" s="6">
         <v>239353</v>
       </c>
@@ -3733,7 +3758,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="19">
+    <row r="120" spans="1:6" ht="17.399999999999999">
       <c r="A120" s="6">
         <v>239354</v>
       </c>
@@ -3753,7 +3778,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="20" thickBot="1">
+    <row r="121" spans="1:6" ht="18" thickBot="1">
       <c r="A121" s="8">
         <v>239355</v>
       </c>
@@ -3773,7 +3798,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="19">
+    <row r="122" spans="1:6" ht="17.399999999999999">
       <c r="A122" s="3">
         <v>239356</v>
       </c>
@@ -3793,7 +3818,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="19">
+    <row r="123" spans="1:6" ht="17.399999999999999">
       <c r="A123" s="6">
         <v>239357</v>
       </c>
@@ -3813,7 +3838,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="19">
+    <row r="124" spans="1:6" ht="17.399999999999999">
       <c r="A124" s="6">
         <v>239358</v>
       </c>
@@ -3833,7 +3858,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="19">
+    <row r="125" spans="1:6" ht="17.399999999999999">
       <c r="A125" s="6">
         <v>239359</v>
       </c>
@@ -3853,7 +3878,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="19">
+    <row r="126" spans="1:6" ht="17.399999999999999">
       <c r="A126" s="6">
         <v>239360</v>
       </c>
@@ -3873,7 +3898,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="19">
+    <row r="127" spans="1:6" ht="17.399999999999999">
       <c r="A127" s="6">
         <v>239361</v>
       </c>
@@ -3893,7 +3918,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="19">
+    <row r="128" spans="1:6" ht="17.399999999999999">
       <c r="A128" s="6">
         <v>239362</v>
       </c>
@@ -3913,7 +3938,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="19">
+    <row r="129" spans="1:6" ht="17.399999999999999">
       <c r="A129" s="6">
         <v>239363</v>
       </c>
@@ -3933,7 +3958,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="19">
+    <row r="130" spans="1:6" ht="17.399999999999999">
       <c r="A130" s="6">
         <v>239364</v>
       </c>
@@ -3953,7 +3978,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="19">
+    <row r="131" spans="1:6" ht="17.399999999999999">
       <c r="A131" s="6">
         <v>239365</v>
       </c>
@@ -3973,7 +3998,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="19">
+    <row r="132" spans="1:6" ht="17.399999999999999">
       <c r="A132" s="6">
         <v>239366</v>
       </c>
@@ -3993,7 +4018,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="19">
+    <row r="133" spans="1:6" ht="17.399999999999999">
       <c r="A133" s="6">
         <v>239367</v>
       </c>
@@ -4013,7 +4038,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="19">
+    <row r="134" spans="1:6" ht="17.399999999999999">
       <c r="A134" s="6">
         <v>239368</v>
       </c>
@@ -4033,7 +4058,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="19">
+    <row r="135" spans="1:6" ht="17.399999999999999">
       <c r="A135" s="6">
         <v>239369</v>
       </c>
@@ -4053,7 +4078,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="19">
+    <row r="136" spans="1:6" ht="17.399999999999999">
       <c r="A136" s="6">
         <v>239370</v>
       </c>
@@ -4073,7 +4098,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="19">
+    <row r="137" spans="1:6" ht="17.399999999999999">
       <c r="A137" s="6">
         <v>239371</v>
       </c>
@@ -4093,7 +4118,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="19">
+    <row r="138" spans="1:6" ht="17.399999999999999">
       <c r="A138" s="6">
         <v>239372</v>
       </c>
@@ -4113,7 +4138,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="19">
+    <row r="139" spans="1:6" ht="17.399999999999999">
       <c r="A139" s="6">
         <v>239373</v>
       </c>
@@ -4133,7 +4158,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="19">
+    <row r="140" spans="1:6" ht="17.399999999999999">
       <c r="A140" s="6">
         <v>239374</v>
       </c>
@@ -4153,7 +4178,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="19">
+    <row r="141" spans="1:6" ht="17.399999999999999">
       <c r="A141" s="6">
         <v>239375</v>
       </c>
@@ -4173,7 +4198,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="19">
+    <row r="142" spans="1:6" ht="17.399999999999999">
       <c r="A142" s="6">
         <v>239376</v>
       </c>
@@ -4193,7 +4218,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="19">
+    <row r="143" spans="1:6" ht="17.399999999999999">
       <c r="A143" s="6">
         <v>239377</v>
       </c>
@@ -4213,7 +4238,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="19">
+    <row r="144" spans="1:6" ht="17.399999999999999">
       <c r="A144" s="6">
         <v>239378</v>
       </c>
@@ -4233,7 +4258,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="19">
+    <row r="145" spans="1:6" ht="17.399999999999999">
       <c r="A145" s="6">
         <v>239379</v>
       </c>
@@ -4253,7 +4278,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="19">
+    <row r="146" spans="1:6" ht="17.399999999999999">
       <c r="A146" s="6">
         <v>239380</v>
       </c>
@@ -4273,7 +4298,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="19">
+    <row r="147" spans="1:6" ht="17.399999999999999">
       <c r="A147" s="6">
         <v>239381</v>
       </c>
@@ -4293,7 +4318,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="19">
+    <row r="148" spans="1:6" ht="17.399999999999999">
       <c r="A148" s="6">
         <v>239382</v>
       </c>
@@ -4313,7 +4338,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="19">
+    <row r="149" spans="1:6" ht="17.399999999999999">
       <c r="A149" s="6">
         <v>239383</v>
       </c>
@@ -4333,7 +4358,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="19">
+    <row r="150" spans="1:6" ht="17.399999999999999">
       <c r="A150" s="6">
         <v>239384</v>
       </c>
@@ -4353,7 +4378,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="19">
+    <row r="151" spans="1:6" ht="17.399999999999999">
       <c r="A151" s="6">
         <v>239385</v>
       </c>
@@ -4373,7 +4398,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="20" thickBot="1">
+    <row r="152" spans="1:6" ht="18" thickBot="1">
       <c r="A152" s="8">
         <v>239386</v>
       </c>
@@ -4393,7 +4418,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="19">
+    <row r="153" spans="1:6" ht="17.399999999999999">
       <c r="A153" s="3">
         <v>239387</v>
       </c>
@@ -4413,7 +4438,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="19">
+    <row r="154" spans="1:6" ht="17.399999999999999">
       <c r="A154" s="6">
         <v>239388</v>
       </c>
@@ -4433,7 +4458,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="19">
+    <row r="155" spans="1:6" ht="17.399999999999999">
       <c r="A155" s="6">
         <v>239389</v>
       </c>
@@ -4453,7 +4478,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="19">
+    <row r="156" spans="1:6" ht="17.399999999999999">
       <c r="A156" s="6">
         <v>239390</v>
       </c>
@@ -4473,7 +4498,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="19">
+    <row r="157" spans="1:6" ht="17.399999999999999">
       <c r="A157" s="6">
         <v>239391</v>
       </c>
@@ -4493,7 +4518,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="19">
+    <row r="158" spans="1:6" ht="17.399999999999999">
       <c r="A158" s="6">
         <v>239392</v>
       </c>
@@ -4513,7 +4538,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="19">
+    <row r="159" spans="1:6" ht="17.399999999999999">
       <c r="A159" s="6">
         <v>239393</v>
       </c>
@@ -4533,7 +4558,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="19">
+    <row r="160" spans="1:6" ht="17.399999999999999">
       <c r="A160" s="6">
         <v>239394</v>
       </c>
@@ -4553,7 +4578,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="19">
+    <row r="161" spans="1:6" ht="17.399999999999999">
       <c r="A161" s="6">
         <v>239395</v>
       </c>
@@ -4573,7 +4598,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="19">
+    <row r="162" spans="1:6" ht="17.399999999999999">
       <c r="A162" s="6">
         <v>239396</v>
       </c>
@@ -4593,7 +4618,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="19">
+    <row r="163" spans="1:6" ht="17.399999999999999">
       <c r="A163" s="6">
         <v>239397</v>
       </c>
@@ -4613,7 +4638,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="19">
+    <row r="164" spans="1:6" ht="17.399999999999999">
       <c r="A164" s="6">
         <v>239398</v>
       </c>
@@ -4633,7 +4658,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="19">
+    <row r="165" spans="1:6" ht="17.399999999999999">
       <c r="A165" s="6">
         <v>239399</v>
       </c>
@@ -4653,7 +4678,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="19">
+    <row r="166" spans="1:6" ht="17.399999999999999">
       <c r="A166" s="6">
         <v>239400</v>
       </c>
@@ -4673,7 +4698,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="19">
+    <row r="167" spans="1:6" ht="17.399999999999999">
       <c r="A167" s="6">
         <v>239401</v>
       </c>
@@ -4693,7 +4718,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="19">
+    <row r="168" spans="1:6" ht="17.399999999999999">
       <c r="A168" s="6">
         <v>239402</v>
       </c>
@@ -4713,7 +4738,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="19">
+    <row r="169" spans="1:6" ht="17.399999999999999">
       <c r="A169" s="6">
         <v>239403</v>
       </c>
@@ -4733,7 +4758,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="19">
+    <row r="170" spans="1:6" ht="17.399999999999999">
       <c r="A170" s="6">
         <v>239404</v>
       </c>
@@ -4753,7 +4778,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="19">
+    <row r="171" spans="1:6" ht="17.399999999999999">
       <c r="A171" s="6">
         <v>239405</v>
       </c>
@@ -4773,7 +4798,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="19">
+    <row r="172" spans="1:6" ht="17.399999999999999">
       <c r="A172" s="6">
         <v>239406</v>
       </c>
@@ -4793,7 +4818,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="19">
+    <row r="173" spans="1:6" ht="17.399999999999999">
       <c r="A173" s="6">
         <v>239407</v>
       </c>
@@ -4813,7 +4838,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="19">
+    <row r="174" spans="1:6" ht="17.399999999999999">
       <c r="A174" s="6">
         <v>239408</v>
       </c>
@@ -4833,7 +4858,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="19">
+    <row r="175" spans="1:6" ht="17.399999999999999">
       <c r="A175" s="6">
         <v>239409</v>
       </c>
@@ -4853,7 +4878,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="19">
+    <row r="176" spans="1:6" ht="17.399999999999999">
       <c r="A176" s="6">
         <v>239410</v>
       </c>
@@ -4873,7 +4898,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="19">
+    <row r="177" spans="1:6" ht="17.399999999999999">
       <c r="A177" s="6">
         <v>239411</v>
       </c>
@@ -4893,7 +4918,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="19">
+    <row r="178" spans="1:6" ht="17.399999999999999">
       <c r="A178" s="6">
         <v>239412</v>
       </c>
@@ -4913,7 +4938,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="19">
+    <row r="179" spans="1:6" ht="17.399999999999999">
       <c r="A179" s="6">
         <v>239413</v>
       </c>
@@ -4933,7 +4958,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="19">
+    <row r="180" spans="1:6" ht="17.399999999999999">
       <c r="A180" s="6">
         <v>239414</v>
       </c>
@@ -4953,7 +4978,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="19">
+    <row r="181" spans="1:6" ht="17.399999999999999">
       <c r="A181" s="6">
         <v>239415</v>
       </c>
@@ -4973,7 +4998,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="20" thickBot="1">
+    <row r="182" spans="1:6" ht="18" thickBot="1">
       <c r="A182" s="8">
         <v>239416</v>
       </c>
@@ -4993,7 +5018,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="19">
+    <row r="183" spans="1:6" ht="17.399999999999999">
       <c r="A183" s="3">
         <v>239417</v>
       </c>
@@ -5013,7 +5038,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="19">
+    <row r="184" spans="1:6" ht="17.399999999999999">
       <c r="A184" s="6">
         <v>239418</v>
       </c>
@@ -5033,7 +5058,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="19">
+    <row r="185" spans="1:6" ht="17.399999999999999">
       <c r="A185" s="6">
         <v>239419</v>
       </c>
@@ -5053,7 +5078,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="19">
+    <row r="186" spans="1:6" ht="17.399999999999999">
       <c r="A186" s="6">
         <v>239420</v>
       </c>
@@ -5073,7 +5098,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="19">
+    <row r="187" spans="1:6" ht="17.399999999999999">
       <c r="A187" s="6">
         <v>239421</v>
       </c>
@@ -5093,7 +5118,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="19">
+    <row r="188" spans="1:6" ht="17.399999999999999">
       <c r="A188" s="6">
         <v>239422</v>
       </c>
@@ -5113,7 +5138,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="19">
+    <row r="189" spans="1:6" ht="17.399999999999999">
       <c r="A189" s="6">
         <v>239423</v>
       </c>
@@ -5133,7 +5158,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="19">
+    <row r="190" spans="1:6" ht="17.399999999999999">
       <c r="A190" s="6">
         <v>239424</v>
       </c>
@@ -5153,7 +5178,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="19">
+    <row r="191" spans="1:6" ht="17.399999999999999">
       <c r="A191" s="6">
         <v>239425</v>
       </c>
@@ -5173,7 +5198,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="19">
+    <row r="192" spans="1:6" ht="17.399999999999999">
       <c r="A192" s="6">
         <v>239426</v>
       </c>
@@ -5193,7 +5218,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="19">
+    <row r="193" spans="1:6" ht="17.399999999999999">
       <c r="A193" s="6">
         <v>239427</v>
       </c>
@@ -5213,7 +5238,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="19">
+    <row r="194" spans="1:6" ht="17.399999999999999">
       <c r="A194" s="6">
         <v>239428</v>
       </c>
@@ -5233,7 +5258,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="19">
+    <row r="195" spans="1:6" ht="17.399999999999999">
       <c r="A195" s="6">
         <v>239429</v>
       </c>
@@ -5253,7 +5278,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="19">
+    <row r="196" spans="1:6" ht="17.399999999999999">
       <c r="A196" s="6">
         <v>239430</v>
       </c>
@@ -5273,7 +5298,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="19">
+    <row r="197" spans="1:6" ht="17.399999999999999">
       <c r="A197" s="6">
         <v>239431</v>
       </c>
@@ -5293,7 +5318,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="19">
+    <row r="198" spans="1:6" ht="17.399999999999999">
       <c r="A198" s="6">
         <v>239432</v>
       </c>
@@ -5313,7 +5338,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="19">
+    <row r="199" spans="1:6" ht="17.399999999999999">
       <c r="A199" s="6">
         <v>239433</v>
       </c>
@@ -5333,7 +5358,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="19">
+    <row r="200" spans="1:6" ht="17.399999999999999">
       <c r="A200" s="6">
         <v>239434</v>
       </c>
@@ -5353,7 +5378,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="19">
+    <row r="201" spans="1:6" ht="17.399999999999999">
       <c r="A201" s="6">
         <v>239435</v>
       </c>
@@ -5373,7 +5398,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="19">
+    <row r="202" spans="1:6" ht="17.399999999999999">
       <c r="A202" s="6">
         <v>239436</v>
       </c>
@@ -5393,7 +5418,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="19">
+    <row r="203" spans="1:6" ht="17.399999999999999">
       <c r="A203" s="6">
         <v>239437</v>
       </c>
@@ -5413,7 +5438,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="19">
+    <row r="204" spans="1:6" ht="17.399999999999999">
       <c r="A204" s="6">
         <v>239438</v>
       </c>
@@ -5433,7 +5458,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="19">
+    <row r="205" spans="1:6" ht="17.399999999999999">
       <c r="A205" s="6">
         <v>239439</v>
       </c>
@@ -5453,7 +5478,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="19">
+    <row r="206" spans="1:6" ht="17.399999999999999">
       <c r="A206" s="6">
         <v>239440</v>
       </c>
@@ -5473,7 +5498,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="19">
+    <row r="207" spans="1:6" ht="17.399999999999999">
       <c r="A207" s="6">
         <v>239441</v>
       </c>
@@ -5493,7 +5518,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="19">
+    <row r="208" spans="1:6" ht="17.399999999999999">
       <c r="A208" s="6">
         <v>239442</v>
       </c>
@@ -5513,7 +5538,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="19">
+    <row r="209" spans="1:6" ht="17.399999999999999">
       <c r="A209" s="6">
         <v>239443</v>
       </c>
@@ -5533,7 +5558,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="19">
+    <row r="210" spans="1:6" ht="17.399999999999999">
       <c r="A210" s="6">
         <v>239444</v>
       </c>
@@ -5553,7 +5578,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="19">
+    <row r="211" spans="1:6" ht="17.399999999999999">
       <c r="A211" s="6">
         <v>239445</v>
       </c>
@@ -5573,7 +5598,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="19">
+    <row r="212" spans="1:6" ht="17.399999999999999">
       <c r="A212" s="6">
         <v>239446</v>
       </c>
@@ -5593,7 +5618,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="20" thickBot="1">
+    <row r="213" spans="1:6" ht="18" thickBot="1">
       <c r="A213" s="8">
         <v>239447</v>
       </c>
@@ -5613,7 +5638,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="19">
+    <row r="214" spans="1:6" ht="17.399999999999999">
       <c r="A214" s="3">
         <v>239448</v>
       </c>
@@ -5633,7 +5658,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="19">
+    <row r="215" spans="1:6" ht="17.399999999999999">
       <c r="A215" s="6">
         <v>239449</v>
       </c>
@@ -5653,7 +5678,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="19">
+    <row r="216" spans="1:6" ht="17.399999999999999">
       <c r="A216" s="6">
         <v>239450</v>
       </c>
@@ -5673,7 +5698,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="19">
+    <row r="217" spans="1:6" ht="17.399999999999999">
       <c r="A217" s="6">
         <v>239451</v>
       </c>
@@ -5693,7 +5718,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="19">
+    <row r="218" spans="1:6" ht="17.399999999999999">
       <c r="A218" s="6">
         <v>239452</v>
       </c>
@@ -5713,7 +5738,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="19">
+    <row r="219" spans="1:6" ht="17.399999999999999">
       <c r="A219" s="6">
         <v>239453</v>
       </c>
@@ -5733,7 +5758,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="19">
+    <row r="220" spans="1:6" ht="17.399999999999999">
       <c r="A220" s="6">
         <v>239454</v>
       </c>
@@ -5753,7 +5778,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="19">
+    <row r="221" spans="1:6" ht="17.399999999999999">
       <c r="A221" s="6">
         <v>239455</v>
       </c>
@@ -5773,7 +5798,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="19">
+    <row r="222" spans="1:6" ht="17.399999999999999">
       <c r="A222" s="6">
         <v>239456</v>
       </c>
@@ -5793,7 +5818,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="19">
+    <row r="223" spans="1:6" ht="17.399999999999999">
       <c r="A223" s="6">
         <v>239457</v>
       </c>
@@ -5813,7 +5838,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="19">
+    <row r="224" spans="1:6" ht="17.399999999999999">
       <c r="A224" s="6">
         <v>239458</v>
       </c>
@@ -5833,7 +5858,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="19">
+    <row r="225" spans="1:6" ht="17.399999999999999">
       <c r="A225" s="6">
         <v>239459</v>
       </c>
@@ -5853,7 +5878,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="19">
+    <row r="226" spans="1:6" ht="17.399999999999999">
       <c r="A226" s="6">
         <v>239460</v>
       </c>
@@ -5873,7 +5898,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="19">
+    <row r="227" spans="1:6" ht="17.399999999999999">
       <c r="A227" s="6">
         <v>239461</v>
       </c>
@@ -5893,7 +5918,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="19">
+    <row r="228" spans="1:6" ht="17.399999999999999">
       <c r="A228" s="6">
         <v>239462</v>
       </c>
@@ -5913,7 +5938,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="19">
+    <row r="229" spans="1:6" ht="17.399999999999999">
       <c r="A229" s="6">
         <v>239463</v>
       </c>
@@ -5933,7 +5958,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="19">
+    <row r="230" spans="1:6" ht="17.399999999999999">
       <c r="A230" s="6">
         <v>239464</v>
       </c>
@@ -5953,7 +5978,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="19">
+    <row r="231" spans="1:6" ht="17.399999999999999">
       <c r="A231" s="6">
         <v>239465</v>
       </c>
@@ -5973,7 +5998,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="19">
+    <row r="232" spans="1:6" ht="17.399999999999999">
       <c r="A232" s="6">
         <v>239466</v>
       </c>
@@ -5993,7 +6018,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="19">
+    <row r="233" spans="1:6" ht="17.399999999999999">
       <c r="A233" s="6">
         <v>239467</v>
       </c>
@@ -6013,7 +6038,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="19">
+    <row r="234" spans="1:6" ht="17.399999999999999">
       <c r="A234" s="6">
         <v>239468</v>
       </c>
@@ -6033,7 +6058,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="19">
+    <row r="235" spans="1:6" ht="17.399999999999999">
       <c r="A235" s="6">
         <v>239469</v>
       </c>
@@ -6053,7 +6078,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="19">
+    <row r="236" spans="1:6" ht="17.399999999999999">
       <c r="A236" s="6">
         <v>239470</v>
       </c>
@@ -6073,7 +6098,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="19">
+    <row r="237" spans="1:6" ht="17.399999999999999">
       <c r="A237" s="6">
         <v>239471</v>
       </c>
@@ -6093,7 +6118,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="19">
+    <row r="238" spans="1:6" ht="17.399999999999999">
       <c r="A238" s="6">
         <v>239472</v>
       </c>
@@ -6113,7 +6138,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="19">
+    <row r="239" spans="1:6" ht="17.399999999999999">
       <c r="A239" s="6">
         <v>239473</v>
       </c>
@@ -6133,7 +6158,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="19">
+    <row r="240" spans="1:6" ht="17.399999999999999">
       <c r="A240" s="6">
         <v>239474</v>
       </c>
@@ -6153,7 +6178,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="19">
+    <row r="241" spans="1:6" ht="17.399999999999999">
       <c r="A241" s="6">
         <v>239475</v>
       </c>
@@ -6173,7 +6198,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="19">
+    <row r="242" spans="1:6" ht="17.399999999999999">
       <c r="A242" s="6">
         <v>239476</v>
       </c>
@@ -6193,7 +6218,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="19">
+    <row r="243" spans="1:6" ht="17.399999999999999">
       <c r="A243" s="6">
         <v>239477</v>
       </c>
@@ -6213,7 +6238,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="20" thickBot="1">
+    <row r="244" spans="1:6" ht="18" thickBot="1">
       <c r="A244" s="8">
         <v>239478</v>
       </c>
@@ -6233,7 +6258,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="19">
+    <row r="245" spans="1:6" ht="17.399999999999999">
       <c r="A245" s="3">
         <v>239479</v>
       </c>
@@ -6253,7 +6278,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="19">
+    <row r="246" spans="1:6" ht="17.399999999999999">
       <c r="A246" s="6">
         <v>239480</v>
       </c>
@@ -6273,7 +6298,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="19">
+    <row r="247" spans="1:6" ht="17.399999999999999">
       <c r="A247" s="6">
         <v>239481</v>
       </c>
@@ -6293,7 +6318,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="19">
+    <row r="248" spans="1:6" ht="17.399999999999999">
       <c r="A248" s="6">
         <v>239482</v>
       </c>
@@ -6313,7 +6338,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="19">
+    <row r="249" spans="1:6" ht="17.399999999999999">
       <c r="A249" s="6">
         <v>239483</v>
       </c>
@@ -6333,7 +6358,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="19">
+    <row r="250" spans="1:6" ht="17.399999999999999">
       <c r="A250" s="6">
         <v>239484</v>
       </c>
@@ -6353,7 +6378,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="19">
+    <row r="251" spans="1:6" ht="17.399999999999999">
       <c r="A251" s="6">
         <v>239485</v>
       </c>
@@ -6373,7 +6398,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="19">
+    <row r="252" spans="1:6" ht="17.399999999999999">
       <c r="A252" s="6">
         <v>239486</v>
       </c>
@@ -6393,7 +6418,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="19">
+    <row r="253" spans="1:6" ht="17.399999999999999">
       <c r="A253" s="6">
         <v>239487</v>
       </c>
@@ -6413,7 +6438,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="19">
+    <row r="254" spans="1:6" ht="17.399999999999999">
       <c r="A254" s="6">
         <v>239488</v>
       </c>
@@ -6433,7 +6458,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="19">
+    <row r="255" spans="1:6" ht="17.399999999999999">
       <c r="A255" s="6">
         <v>239489</v>
       </c>
@@ -6453,7 +6478,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="19">
+    <row r="256" spans="1:6" ht="17.399999999999999">
       <c r="A256" s="6">
         <v>239490</v>
       </c>
@@ -6473,7 +6498,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="19">
+    <row r="257" spans="1:6" ht="17.399999999999999">
       <c r="A257" s="6">
         <v>239491</v>
       </c>
@@ -6493,7 +6518,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="19">
+    <row r="258" spans="1:6" ht="17.399999999999999">
       <c r="A258" s="6">
         <v>239492</v>
       </c>
@@ -6513,7 +6538,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="19">
+    <row r="259" spans="1:6" ht="17.399999999999999">
       <c r="A259" s="6">
         <v>239493</v>
       </c>
@@ -6533,7 +6558,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="19">
+    <row r="260" spans="1:6" ht="17.399999999999999">
       <c r="A260" s="6">
         <v>239494</v>
       </c>
@@ -6553,7 +6578,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="19">
+    <row r="261" spans="1:6" ht="17.399999999999999">
       <c r="A261" s="6">
         <v>239495</v>
       </c>
@@ -6573,7 +6598,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="19">
+    <row r="262" spans="1:6" ht="17.399999999999999">
       <c r="A262" s="6">
         <v>239496</v>
       </c>
@@ -6593,7 +6618,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="19">
+    <row r="263" spans="1:6" ht="17.399999999999999">
       <c r="A263" s="6">
         <v>239497</v>
       </c>
@@ -6613,7 +6638,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="19">
+    <row r="264" spans="1:6" ht="17.399999999999999">
       <c r="A264" s="6">
         <v>239498</v>
       </c>
@@ -6633,7 +6658,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="19">
+    <row r="265" spans="1:6" ht="17.399999999999999">
       <c r="A265" s="6">
         <v>239499</v>
       </c>
@@ -6653,7 +6678,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="19">
+    <row r="266" spans="1:6" ht="17.399999999999999">
       <c r="A266" s="6">
         <v>239500</v>
       </c>
@@ -6673,7 +6698,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="19">
+    <row r="267" spans="1:6" ht="17.399999999999999">
       <c r="A267" s="6">
         <v>239501</v>
       </c>
@@ -6693,7 +6718,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="19">
+    <row r="268" spans="1:6" ht="17.399999999999999">
       <c r="A268" s="6">
         <v>239502</v>
       </c>
@@ -6713,7 +6738,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="19">
+    <row r="269" spans="1:6" ht="17.399999999999999">
       <c r="A269" s="6">
         <v>239503</v>
       </c>
@@ -6733,7 +6758,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="19">
+    <row r="270" spans="1:6" ht="17.399999999999999">
       <c r="A270" s="6">
         <v>239504</v>
       </c>
@@ -6753,7 +6778,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="19">
+    <row r="271" spans="1:6" ht="17.399999999999999">
       <c r="A271" s="6">
         <v>239505</v>
       </c>
@@ -6773,7 +6798,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="19">
+    <row r="272" spans="1:6" ht="17.399999999999999">
       <c r="A272" s="6">
         <v>239506</v>
       </c>
@@ -6793,7 +6818,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="19">
+    <row r="273" spans="1:6" ht="17.399999999999999">
       <c r="A273" s="6">
         <v>239507</v>
       </c>
@@ -6813,7 +6838,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="20" thickBot="1">
+    <row r="274" spans="1:6" ht="18" thickBot="1">
       <c r="A274" s="8">
         <v>239508</v>
       </c>
@@ -6833,7 +6858,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="19">
+    <row r="275" spans="1:6" ht="17.399999999999999">
       <c r="A275" s="3">
         <v>239509</v>
       </c>
@@ -6853,7 +6878,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="19">
+    <row r="276" spans="1:6" ht="17.399999999999999">
       <c r="A276" s="6">
         <v>239510</v>
       </c>
@@ -6873,7 +6898,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="19">
+    <row r="277" spans="1:6" ht="17.399999999999999">
       <c r="A277" s="6">
         <v>239511</v>
       </c>
@@ -6893,7 +6918,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="19">
+    <row r="278" spans="1:6" ht="17.399999999999999">
       <c r="A278" s="6">
         <v>239512</v>
       </c>
@@ -6913,7 +6938,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="19">
+    <row r="279" spans="1:6" ht="17.399999999999999">
       <c r="A279" s="6">
         <v>239513</v>
       </c>
@@ -6933,7 +6958,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="19">
+    <row r="280" spans="1:6" ht="17.399999999999999">
       <c r="A280" s="6">
         <v>239514</v>
       </c>
@@ -6953,7 +6978,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="19">
+    <row r="281" spans="1:6" ht="17.399999999999999">
       <c r="A281" s="6">
         <v>239515</v>
       </c>
@@ -6973,7 +6998,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="19">
+    <row r="282" spans="1:6" ht="17.399999999999999">
       <c r="A282" s="6">
         <v>239516</v>
       </c>
@@ -6993,7 +7018,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="19">
+    <row r="283" spans="1:6" ht="17.399999999999999">
       <c r="A283" s="6">
         <v>239517</v>
       </c>
@@ -7013,7 +7038,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="19">
+    <row r="284" spans="1:6" ht="17.399999999999999">
       <c r="A284" s="6">
         <v>239518</v>
       </c>
@@ -7033,7 +7058,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="19">
+    <row r="285" spans="1:6" ht="17.399999999999999">
       <c r="A285" s="6">
         <v>239519</v>
       </c>
@@ -7053,7 +7078,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="19">
+    <row r="286" spans="1:6" ht="17.399999999999999">
       <c r="A286" s="6">
         <v>239520</v>
       </c>
@@ -7073,7 +7098,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="19">
+    <row r="287" spans="1:6" ht="17.399999999999999">
       <c r="A287" s="6">
         <v>239521</v>
       </c>
@@ -7093,7 +7118,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="19">
+    <row r="288" spans="1:6" ht="17.399999999999999">
       <c r="A288" s="6">
         <v>239522</v>
       </c>
@@ -7113,7 +7138,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="19">
+    <row r="289" spans="1:6" ht="17.399999999999999">
       <c r="A289" s="6">
         <v>239523</v>
       </c>
@@ -7133,7 +7158,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="19">
+    <row r="290" spans="1:6" ht="17.399999999999999">
       <c r="A290" s="6">
         <v>239524</v>
       </c>
@@ -7153,7 +7178,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="19">
+    <row r="291" spans="1:6" ht="17.399999999999999">
       <c r="A291" s="6">
         <v>239525</v>
       </c>
@@ -7173,7 +7198,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="19">
+    <row r="292" spans="1:6" ht="17.399999999999999">
       <c r="A292" s="6">
         <v>239526</v>
       </c>
@@ -7193,7 +7218,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="19">
+    <row r="293" spans="1:6" ht="17.399999999999999">
       <c r="A293" s="6">
         <v>239527</v>
       </c>
@@ -7213,7 +7238,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="19">
+    <row r="294" spans="1:6" ht="17.399999999999999">
       <c r="A294" s="6">
         <v>239528</v>
       </c>
@@ -7233,7 +7258,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="19">
+    <row r="295" spans="1:6" ht="17.399999999999999">
       <c r="A295" s="6">
         <v>239529</v>
       </c>
@@ -7253,7 +7278,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="19">
+    <row r="296" spans="1:6" ht="17.399999999999999">
       <c r="A296" s="6">
         <v>239530</v>
       </c>
@@ -7273,7 +7298,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="19">
+    <row r="297" spans="1:6" ht="17.399999999999999">
       <c r="A297" s="6">
         <v>239531</v>
       </c>
@@ -7293,7 +7318,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="19">
+    <row r="298" spans="1:6" ht="17.399999999999999">
       <c r="A298" s="6">
         <v>239532</v>
       </c>
@@ -7313,7 +7338,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="19">
+    <row r="299" spans="1:6" ht="17.399999999999999">
       <c r="A299" s="6">
         <v>239533</v>
       </c>
@@ -7333,7 +7358,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="19">
+    <row r="300" spans="1:6" ht="17.399999999999999">
       <c r="A300" s="6">
         <v>239534</v>
       </c>
@@ -7353,7 +7378,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="19">
+    <row r="301" spans="1:6" ht="17.399999999999999">
       <c r="A301" s="6">
         <v>239535</v>
       </c>
@@ -7373,7 +7398,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="19">
+    <row r="302" spans="1:6" ht="17.399999999999999">
       <c r="A302" s="6">
         <v>239536</v>
       </c>
@@ -7393,7 +7418,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="19">
+    <row r="303" spans="1:6" ht="17.399999999999999">
       <c r="A303" s="6">
         <v>239537</v>
       </c>
@@ -7413,7 +7438,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="19">
+    <row r="304" spans="1:6" ht="17.399999999999999">
       <c r="A304" s="6">
         <v>239538</v>
       </c>
@@ -7433,7 +7458,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="20" thickBot="1">
+    <row r="305" spans="1:6" ht="18" thickBot="1">
       <c r="A305" s="8">
         <v>239539</v>
       </c>
@@ -7453,7 +7478,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="19">
+    <row r="306" spans="1:6" ht="17.399999999999999">
       <c r="A306" s="3">
         <v>239540</v>
       </c>
@@ -7473,7 +7498,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="19">
+    <row r="307" spans="1:6" ht="17.399999999999999">
       <c r="A307" s="6">
         <v>239541</v>
       </c>
@@ -7493,7 +7518,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="19">
+    <row r="308" spans="1:6" ht="17.399999999999999">
       <c r="A308" s="6">
         <v>239542</v>
       </c>
@@ -7513,7 +7538,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="19">
+    <row r="309" spans="1:6" ht="17.399999999999999">
       <c r="A309" s="6">
         <v>239543</v>
       </c>
@@ -7533,7 +7558,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="19">
+    <row r="310" spans="1:6" ht="17.399999999999999">
       <c r="A310" s="6">
         <v>239544</v>
       </c>
@@ -7553,7 +7578,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="19">
+    <row r="311" spans="1:6" ht="17.399999999999999">
       <c r="A311" s="6">
         <v>239545</v>
       </c>
@@ -7573,7 +7598,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="19">
+    <row r="312" spans="1:6" ht="17.399999999999999">
       <c r="A312" s="6">
         <v>239546</v>
       </c>
@@ -7593,7 +7618,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="19">
+    <row r="313" spans="1:6" ht="17.399999999999999">
       <c r="A313" s="6">
         <v>239547</v>
       </c>
@@ -7613,7 +7638,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="19">
+    <row r="314" spans="1:6" ht="17.399999999999999">
       <c r="A314" s="6">
         <v>239548</v>
       </c>
@@ -7633,7 +7658,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="19">
+    <row r="315" spans="1:6" ht="17.399999999999999">
       <c r="A315" s="6">
         <v>239549</v>
       </c>
@@ -7653,7 +7678,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="19">
+    <row r="316" spans="1:6" ht="17.399999999999999">
       <c r="A316" s="6">
         <v>239550</v>
       </c>
@@ -7673,7 +7698,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="19">
+    <row r="317" spans="1:6" ht="17.399999999999999">
       <c r="A317" s="6">
         <v>239551</v>
       </c>
@@ -7693,7 +7718,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="19">
+    <row r="318" spans="1:6" ht="17.399999999999999">
       <c r="A318" s="6">
         <v>239552</v>
       </c>
@@ -7713,7 +7738,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="19">
+    <row r="319" spans="1:6" ht="17.399999999999999">
       <c r="A319" s="6">
         <v>239553</v>
       </c>
@@ -7733,7 +7758,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="19">
+    <row r="320" spans="1:6" ht="17.399999999999999">
       <c r="A320" s="6">
         <v>239554</v>
       </c>
@@ -7753,7 +7778,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="19">
+    <row r="321" spans="1:6" ht="17.399999999999999">
       <c r="A321" s="6">
         <v>239555</v>
       </c>
@@ -7773,7 +7798,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="19">
+    <row r="322" spans="1:6" ht="17.399999999999999">
       <c r="A322" s="6">
         <v>239556</v>
       </c>
@@ -7793,7 +7818,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="19">
+    <row r="323" spans="1:6" ht="17.399999999999999">
       <c r="A323" s="6">
         <v>239557</v>
       </c>
@@ -7813,7 +7838,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="19">
+    <row r="324" spans="1:6" ht="17.399999999999999">
       <c r="A324" s="6">
         <v>239558</v>
       </c>
@@ -7833,7 +7858,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="19">
+    <row r="325" spans="1:6" ht="17.399999999999999">
       <c r="A325" s="6">
         <v>239559</v>
       </c>
@@ -7853,7 +7878,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="19">
+    <row r="326" spans="1:6" ht="17.399999999999999">
       <c r="A326" s="6">
         <v>239560</v>
       </c>
@@ -7873,7 +7898,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="19">
+    <row r="327" spans="1:6" ht="17.399999999999999">
       <c r="A327" s="6">
         <v>239561</v>
       </c>
@@ -7893,7 +7918,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="19">
+    <row r="328" spans="1:6" ht="17.399999999999999">
       <c r="A328" s="6">
         <v>239562</v>
       </c>
@@ -7913,7 +7938,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="19">
+    <row r="329" spans="1:6" ht="17.399999999999999">
       <c r="A329" s="6">
         <v>239563</v>
       </c>
@@ -7933,7 +7958,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="19">
+    <row r="330" spans="1:6" ht="17.399999999999999">
       <c r="A330" s="6">
         <v>239564</v>
       </c>
@@ -7953,7 +7978,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="19">
+    <row r="331" spans="1:6" ht="17.399999999999999">
       <c r="A331" s="6">
         <v>239565</v>
       </c>
@@ -7973,7 +7998,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="19">
+    <row r="332" spans="1:6" ht="17.399999999999999">
       <c r="A332" s="6">
         <v>239566</v>
       </c>
@@ -7993,7 +8018,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="19">
+    <row r="333" spans="1:6" ht="17.399999999999999">
       <c r="A333" s="6">
         <v>239567</v>
       </c>
@@ -8013,7 +8038,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="19">
+    <row r="334" spans="1:6" ht="17.399999999999999">
       <c r="A334" s="6">
         <v>239568</v>
       </c>
@@ -8033,7 +8058,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="20" thickBot="1">
+    <row r="335" spans="1:6" ht="18" thickBot="1">
       <c r="A335" s="8">
         <v>239569</v>
       </c>
@@ -8053,7 +8078,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="19">
+    <row r="336" spans="1:6" ht="17.399999999999999">
       <c r="A336" s="3">
         <v>239570</v>
       </c>
@@ -8073,7 +8098,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="19">
+    <row r="337" spans="1:6" ht="17.399999999999999">
       <c r="A337" s="6">
         <v>239571</v>
       </c>
@@ -8093,7 +8118,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="19">
+    <row r="338" spans="1:6" ht="17.399999999999999">
       <c r="A338" s="6">
         <v>239572</v>
       </c>
@@ -8113,7 +8138,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="19">
+    <row r="339" spans="1:6" ht="17.399999999999999">
       <c r="A339" s="6">
         <v>239573</v>
       </c>
@@ -8133,7 +8158,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="19">
+    <row r="340" spans="1:6" ht="17.399999999999999">
       <c r="A340" s="6">
         <v>239574</v>
       </c>
@@ -8153,7 +8178,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="19">
+    <row r="341" spans="1:6" ht="17.399999999999999">
       <c r="A341" s="6">
         <v>239575</v>
       </c>
@@ -8173,7 +8198,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="19">
+    <row r="342" spans="1:6" ht="17.399999999999999">
       <c r="A342" s="6">
         <v>239576</v>
       </c>
@@ -8193,7 +8218,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="19">
+    <row r="343" spans="1:6" ht="17.399999999999999">
       <c r="A343" s="6">
         <v>239577</v>
       </c>
@@ -8213,7 +8238,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="19">
+    <row r="344" spans="1:6" ht="17.399999999999999">
       <c r="A344" s="6">
         <v>239578</v>
       </c>
@@ -8233,7 +8258,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="19">
+    <row r="345" spans="1:6" ht="17.399999999999999">
       <c r="A345" s="6">
         <v>239579</v>
       </c>
@@ -8253,7 +8278,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="19">
+    <row r="346" spans="1:6" ht="17.399999999999999">
       <c r="A346" s="6">
         <v>239580</v>
       </c>
@@ -8273,7 +8298,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="19">
+    <row r="347" spans="1:6" ht="17.399999999999999">
       <c r="A347" s="6">
         <v>239581</v>
       </c>
@@ -8293,7 +8318,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="19">
+    <row r="348" spans="1:6" ht="17.399999999999999">
       <c r="A348" s="6">
         <v>239582</v>
       </c>
@@ -8313,7 +8338,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="19">
+    <row r="349" spans="1:6" ht="17.399999999999999">
       <c r="A349" s="6">
         <v>239583</v>
       </c>
@@ -8333,7 +8358,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="19">
+    <row r="350" spans="1:6" ht="17.399999999999999">
       <c r="A350" s="6">
         <v>239584</v>
       </c>
@@ -8353,7 +8378,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="19">
+    <row r="351" spans="1:6" ht="17.399999999999999">
       <c r="A351" s="6">
         <v>239585</v>
       </c>
@@ -8373,7 +8398,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="19">
+    <row r="352" spans="1:6" ht="17.399999999999999">
       <c r="A352" s="6">
         <v>239586</v>
       </c>
@@ -8393,7 +8418,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="19">
+    <row r="353" spans="1:6" ht="17.399999999999999">
       <c r="A353" s="6">
         <v>239587</v>
       </c>
@@ -8413,7 +8438,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="19">
+    <row r="354" spans="1:6" ht="17.399999999999999">
       <c r="A354" s="6">
         <v>239588</v>
       </c>
@@ -8433,7 +8458,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="19">
+    <row r="355" spans="1:6" ht="17.399999999999999">
       <c r="A355" s="6">
         <v>239589</v>
       </c>
@@ -8453,7 +8478,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="19">
+    <row r="356" spans="1:6" ht="17.399999999999999">
       <c r="A356" s="6">
         <v>239590</v>
       </c>
@@ -8473,7 +8498,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="19">
+    <row r="357" spans="1:6" ht="17.399999999999999">
       <c r="A357" s="6">
         <v>239591</v>
       </c>
@@ -8493,7 +8518,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="19">
+    <row r="358" spans="1:6" ht="17.399999999999999">
       <c r="A358" s="6">
         <v>239592</v>
       </c>
@@ -8513,7 +8538,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="19">
+    <row r="359" spans="1:6" ht="17.399999999999999">
       <c r="A359" s="6">
         <v>239593</v>
       </c>
@@ -8533,7 +8558,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="19">
+    <row r="360" spans="1:6" ht="17.399999999999999">
       <c r="A360" s="6">
         <v>239594</v>
       </c>
@@ -8553,7 +8578,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="19">
+    <row r="361" spans="1:6" ht="17.399999999999999">
       <c r="A361" s="6">
         <v>239595</v>
       </c>
@@ -8573,7 +8598,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="19">
+    <row r="362" spans="1:6" ht="17.399999999999999">
       <c r="A362" s="6">
         <v>239596</v>
       </c>
@@ -8593,7 +8618,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="19">
+    <row r="363" spans="1:6" ht="17.399999999999999">
       <c r="A363" s="6">
         <v>239597</v>
       </c>
@@ -8613,7 +8638,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="19">
+    <row r="364" spans="1:6" ht="17.399999999999999">
       <c r="A364" s="6">
         <v>239598</v>
       </c>
@@ -8633,7 +8658,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="19">
+    <row r="365" spans="1:6" ht="17.399999999999999">
       <c r="A365" s="6">
         <v>239599</v>
       </c>
@@ -8653,7 +8678,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="20" thickBot="1">
+    <row r="366" spans="1:6" ht="18" thickBot="1">
       <c r="A366" s="8">
         <v>239600</v>
       </c>
@@ -8681,4 +8706,345 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276FEFAF-C5C9-4123-A6CD-0932162EB4C4}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42">
+        <f>AVERAGE('2555'!B2:B32)</f>
+        <v>34.692258064516132</v>
+      </c>
+      <c r="C2" s="43">
+        <f>AVERAGE('2555'!C2:C32)</f>
+        <v>36.442258064516132</v>
+      </c>
+      <c r="D2" s="43">
+        <f>AVERAGE('2555'!D2:D32)</f>
+        <v>33.692258064516132</v>
+      </c>
+      <c r="E2" s="43">
+        <f>AVERAGE('2555'!E2:E32)</f>
+        <v>22.085806451612896</v>
+      </c>
+      <c r="F2" s="44">
+        <f>AVERAGE('2555'!F2:F32)</f>
+        <v>30.510645161290324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="40">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45">
+        <f>AVERAGE('2555'!B33:B60)</f>
+        <v>36.731785714285706</v>
+      </c>
+      <c r="C3" s="27">
+        <f>AVERAGE('2555'!C33:C60)</f>
+        <v>38.481785714285714</v>
+      </c>
+      <c r="D3" s="27">
+        <f>AVERAGE('2555'!D33:D60)</f>
+        <v>35.731785714285706</v>
+      </c>
+      <c r="E3" s="27">
+        <f>AVERAGE('2555'!E33:E60)</f>
+        <v>22.817499999999988</v>
+      </c>
+      <c r="F3" s="28">
+        <f>AVERAGE('2555'!F33:F60)</f>
+        <v>31.297857142857147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="40">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45">
+        <f>AVERAGE('2555'!B61:B91)</f>
+        <v>38.267096774193554</v>
+      </c>
+      <c r="C4" s="27">
+        <f>AVERAGE('2555'!C61:C91)</f>
+        <v>40.017096774193554</v>
+      </c>
+      <c r="D4" s="27">
+        <f>AVERAGE('2555'!D61:D91)</f>
+        <v>37.267096774193554</v>
+      </c>
+      <c r="E4" s="27">
+        <f>AVERAGE('2555'!E61:E91)</f>
+        <v>23.873548387096786</v>
+      </c>
+      <c r="F4" s="28">
+        <f>AVERAGE('2555'!F61:F91)</f>
+        <v>32.11709677419357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="40">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45">
+        <f>AVERAGE('2555'!B92:B121)</f>
+        <v>38.576666666666647</v>
+      </c>
+      <c r="C5" s="27">
+        <f>AVERAGE('2555'!C92:C121)</f>
+        <v>40.326666666666647</v>
+      </c>
+      <c r="D5" s="27">
+        <f>AVERAGE('2555'!D92:D121)</f>
+        <v>37.576666666666647</v>
+      </c>
+      <c r="E5" s="27">
+        <f>AVERAGE('2555'!E92:E121)</f>
+        <v>23.976666666666663</v>
+      </c>
+      <c r="F5" s="28">
+        <f>AVERAGE('2555'!F92:F121)</f>
+        <v>31.993333333333322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="40">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45">
+        <f>AVERAGE('2555'!B122:B152)</f>
+        <v>36.650967741935482</v>
+      </c>
+      <c r="C6" s="27">
+        <f>AVERAGE('2555'!C122:C152)</f>
+        <v>38.400967741935482</v>
+      </c>
+      <c r="D6" s="27">
+        <f>AVERAGE('2555'!D122:D152)</f>
+        <v>35.489677419354841</v>
+      </c>
+      <c r="E6" s="27">
+        <f>AVERAGE('2555'!E122:E152)</f>
+        <v>22.725161290322571</v>
+      </c>
+      <c r="F6" s="28">
+        <f>AVERAGE('2555'!F122:F152)</f>
+        <v>30.510645161290334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="40">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <f>AVERAGE('2555'!B153:B182)</f>
+        <v>34.633333333333312</v>
+      </c>
+      <c r="C7" s="27">
+        <f>AVERAGE('2555'!C153:C182)</f>
+        <v>36.383333333333319</v>
+      </c>
+      <c r="D7" s="27">
+        <f>AVERAGE('2555'!D153:D182)</f>
+        <v>32.949999999999996</v>
+      </c>
+      <c r="E7" s="27">
+        <f>AVERAGE('2555'!E153:E182)</f>
+        <v>20.723333333333319</v>
+      </c>
+      <c r="F7" s="28">
+        <f>AVERAGE('2555'!F153:F182)</f>
+        <v>29.579999999999981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="40">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45">
+        <f>AVERAGE('2555'!B183:B213)</f>
+        <v>35.357419354838719</v>
+      </c>
+      <c r="C8" s="27">
+        <f>AVERAGE('2555'!C183:C213)</f>
+        <v>37.107419354838719</v>
+      </c>
+      <c r="D8" s="27">
+        <f>AVERAGE('2555'!D183:D213)</f>
+        <v>33.45741935483872</v>
+      </c>
+      <c r="E8" s="27">
+        <f>AVERAGE('2555'!E183:E213)</f>
+        <v>21.357419354838719</v>
+      </c>
+      <c r="F8" s="28">
+        <f>AVERAGE('2555'!F183:F213)</f>
+        <v>29.73645161290322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="40">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45">
+        <f>AVERAGE('2555'!B214:B244)</f>
+        <v>36.112258064516105</v>
+      </c>
+      <c r="C9" s="27">
+        <f>AVERAGE('2555'!C214:C244)</f>
+        <v>38.246129032258075</v>
+      </c>
+      <c r="D9" s="27">
+        <f>AVERAGE('2555'!D214:D244)</f>
+        <v>34.705806451612887</v>
+      </c>
+      <c r="E9" s="27">
+        <f>AVERAGE('2555'!E214:E244)</f>
+        <v>22.467096774193561</v>
+      </c>
+      <c r="F9" s="28">
+        <f>AVERAGE('2555'!F214:F244)</f>
+        <v>29.885483870967747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="40">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45">
+        <f>AVERAGE('2555'!B245:B274)</f>
+        <v>35.199999999999974</v>
+      </c>
+      <c r="C10" s="27">
+        <f>AVERAGE('2555'!C245:C274)</f>
+        <v>37.650000000000006</v>
+      </c>
+      <c r="D10" s="27">
+        <f>AVERAGE('2555'!D245:D274)</f>
+        <v>34.199999999999974</v>
+      </c>
+      <c r="E10" s="27">
+        <f>AVERAGE('2555'!E245:E274)</f>
+        <v>21.990000000000006</v>
+      </c>
+      <c r="F10" s="28">
+        <f>AVERAGE('2555'!F245:F274)</f>
+        <v>29.929999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="40">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45">
+        <f>AVERAGE('2555'!B275:B305)</f>
+        <v>35.257419354838689</v>
+      </c>
+      <c r="C11" s="27">
+        <f>AVERAGE('2555'!C275:C305)</f>
+        <v>37.70741935483872</v>
+      </c>
+      <c r="D11" s="27">
+        <f>AVERAGE('2555'!D275:D305)</f>
+        <v>33.257419354838689</v>
+      </c>
+      <c r="E11" s="27">
+        <f>AVERAGE('2555'!E275:E305)</f>
+        <v>21.883225806451595</v>
+      </c>
+      <c r="F11" s="28">
+        <f>AVERAGE('2555'!F275:F305)</f>
+        <v>29.789999999999988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="40">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45">
+        <f>AVERAGE('2555'!B306:B335)</f>
+        <v>34.689999999999991</v>
+      </c>
+      <c r="C12" s="27">
+        <f>AVERAGE('2555'!C306:C335)</f>
+        <v>37.140000000000015</v>
+      </c>
+      <c r="D12" s="27">
+        <f>AVERAGE('2555'!D306:D335)</f>
+        <v>31.689999999999994</v>
+      </c>
+      <c r="E12" s="27">
+        <f>AVERAGE('2555'!E306:E335)</f>
+        <v>21.296666666666656</v>
+      </c>
+      <c r="F12" s="28">
+        <f>AVERAGE('2555'!F306:F335)</f>
+        <v>29.789999999999988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46">
+        <f>AVERAGE('2555'!B336:B366)</f>
+        <v>35.089677419354842</v>
+      </c>
+      <c r="C13" s="29">
+        <f>AVERAGE('2555'!C336:C366)</f>
+        <v>37.539677419354845</v>
+      </c>
+      <c r="D13" s="29">
+        <f>AVERAGE('2555'!D336:D366)</f>
+        <v>32.089677419354835</v>
+      </c>
+      <c r="E13" s="29">
+        <f>AVERAGE('2555'!E336:E366)</f>
+        <v>21.505806451612891</v>
+      </c>
+      <c r="F13" s="30">
+        <f>AVERAGE('2555'!F336:F366)</f>
+        <v>29.789999999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Oil price information/2555.xlsx
+++ b/Oil price information/2555.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniejuu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C91A932-D43B-42DB-B910-EA34E6E94DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D87F77-2134-6A46-9CD5-5023644F410E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19464" activeTab="1" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2555" sheetId="1" r:id="rId1"/>
-    <sheet name="ค่าเฉลี่ยราคาน้ำมันแต่ละเดือน" sheetId="2" r:id="rId2"/>
+    <sheet name="ราคาน้ำมัน" sheetId="1" r:id="rId1"/>
+    <sheet name="ราคาเฉลี่ย" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>วว/ดด/ปป</t>
   </si>
@@ -99,6 +99,48 @@
   <si>
     <t>ราคาเฉลี่ย</t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Ultra Force Diesel</t>
+  </si>
 </sst>
 </file>
 
@@ -108,14 +150,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +169,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -394,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,30 +550,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,32 +877,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624B7881-4D5C-0745-8D44-E6A170A96F56}">
   <dimension ref="A1:M366"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="13.6328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="17"/>
-    <col min="8" max="8" width="12.36328125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="17"/>
-    <col min="11" max="11" width="13.1796875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" style="17" customWidth="1"/>
-    <col min="17" max="17" width="15.6328125" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="10.81640625" style="17"/>
+    <col min="1" max="1" width="21.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="17" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="17"/>
+    <col min="8" max="8" width="12.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="17"/>
+    <col min="11" max="11" width="13.1640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="17" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" thickBot="1">
+    <row r="1" spans="1:13" ht="17" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -904,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.05" customHeight="1">
+    <row r="2" spans="1:13" ht="19" customHeight="1">
       <c r="A2" s="3">
         <v>239236</v>
       </c>
@@ -933,7 +951,7 @@
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
     </row>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1">
+    <row r="3" spans="1:13" ht="20" customHeight="1">
       <c r="A3" s="6">
         <v>239237</v>
       </c>
@@ -960,7 +978,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:13" ht="17.399999999999999">
+    <row r="4" spans="1:13" ht="19">
       <c r="A4" s="6">
         <v>239238</v>
       </c>
@@ -982,7 +1000,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="19.05" customHeight="1">
+    <row r="5" spans="1:13" ht="19" customHeight="1">
       <c r="A5" s="6">
         <v>239239</v>
       </c>
@@ -1011,7 +1029,7 @@
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:13" ht="19.05" customHeight="1">
+    <row r="6" spans="1:13" ht="19" customHeight="1">
       <c r="A6" s="6">
         <v>239240</v>
       </c>
@@ -1038,7 +1056,7 @@
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:13" ht="18" thickBot="1">
+    <row r="7" spans="1:13" ht="20" thickBot="1">
       <c r="A7" s="6">
         <v>239241</v>
       </c>
@@ -1061,7 +1079,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="18" thickBot="1">
+    <row r="8" spans="1:13" ht="20" thickBot="1">
       <c r="A8" s="6">
         <v>239242</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.399999999999999">
+    <row r="9" spans="1:13" ht="19">
       <c r="A9" s="6">
         <v>239243</v>
       </c>
@@ -1144,7 +1162,7 @@
         <v>30.510645161290324</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.399999999999999">
+    <row r="10" spans="1:13" ht="19">
       <c r="A10" s="6">
         <v>239244</v>
       </c>
@@ -1188,7 +1206,7 @@
         <v>31.297857142857147</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.399999999999999">
+    <row r="11" spans="1:13" ht="19">
       <c r="A11" s="6">
         <v>239245</v>
       </c>
@@ -1232,7 +1250,7 @@
         <v>32.11709677419357</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.399999999999999">
+    <row r="12" spans="1:13" ht="19">
       <c r="A12" s="6">
         <v>239246</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>31.993333333333322</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.399999999999999">
+    <row r="13" spans="1:13" ht="19">
       <c r="A13" s="6">
         <v>239247</v>
       </c>
@@ -1320,7 +1338,7 @@
         <v>30.510645161290334</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.399999999999999">
+    <row r="14" spans="1:13" ht="19">
       <c r="A14" s="6">
         <v>239248</v>
       </c>
@@ -1364,7 +1382,7 @@
         <v>29.579999999999981</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.399999999999999">
+    <row r="15" spans="1:13" ht="19">
       <c r="A15" s="6">
         <v>239249</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>29.73645161290322</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.399999999999999">
+    <row r="16" spans="1:13" ht="19">
       <c r="A16" s="6">
         <v>239250</v>
       </c>
@@ -1452,7 +1470,7 @@
         <v>29.885483870967747</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.399999999999999">
+    <row r="17" spans="1:13" ht="19">
       <c r="A17" s="6">
         <v>239251</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>29.929999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.399999999999999">
+    <row r="18" spans="1:13" ht="19">
       <c r="A18" s="6">
         <v>239252</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.399999999999999">
+    <row r="19" spans="1:13" ht="19">
       <c r="A19" s="6">
         <v>239253</v>
       </c>
@@ -1584,7 +1602,7 @@
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" thickBot="1">
+    <row r="20" spans="1:13" ht="20" thickBot="1">
       <c r="A20" s="6">
         <v>239254</v>
       </c>
@@ -1628,7 +1646,7 @@
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.399999999999999">
+    <row r="21" spans="1:13" ht="19">
       <c r="A21" s="6">
         <v>239255</v>
       </c>
@@ -1651,7 +1669,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="17.399999999999999">
+    <row r="22" spans="1:13" ht="19">
       <c r="A22" s="6">
         <v>239256</v>
       </c>
@@ -1680,7 +1698,7 @@
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13" ht="17.399999999999999">
+    <row r="23" spans="1:13" ht="19">
       <c r="A23" s="6">
         <v>239257</v>
       </c>
@@ -1707,7 +1725,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13" ht="18" thickBot="1">
+    <row r="24" spans="1:13" ht="20" thickBot="1">
       <c r="A24" s="6">
         <v>239258</v>
       </c>
@@ -1728,7 +1746,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="18" thickBot="1">
+    <row r="25" spans="1:13" ht="20" thickBot="1">
       <c r="A25" s="6">
         <v>239259</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" thickBot="1">
+    <row r="26" spans="1:13" ht="20" thickBot="1">
       <c r="A26" s="6">
         <v>239260</v>
       </c>
@@ -1811,7 +1829,7 @@
         <v>30.404630136986491</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.399999999999999">
+    <row r="27" spans="1:13" ht="19">
       <c r="A27" s="6">
         <v>239261</v>
       </c>
@@ -1834,7 +1852,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="17.399999999999999">
+    <row r="28" spans="1:13" ht="19">
       <c r="A28" s="6">
         <v>239262</v>
       </c>
@@ -1857,7 +1875,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="17.399999999999999">
+    <row r="29" spans="1:13" ht="19">
       <c r="A29" s="6">
         <v>239263</v>
       </c>
@@ -1880,7 +1898,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="17.399999999999999">
+    <row r="30" spans="1:13" ht="19">
       <c r="A30" s="6">
         <v>239264</v>
       </c>
@@ -1903,7 +1921,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="17.399999999999999">
+    <row r="31" spans="1:13" ht="19">
       <c r="A31" s="6">
         <v>239265</v>
       </c>
@@ -1925,7 +1943,7 @@
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="18" thickBot="1">
+    <row r="32" spans="1:13" ht="20" thickBot="1">
       <c r="A32" s="8">
         <v>239266</v>
       </c>
@@ -1947,7 +1965,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="17.399999999999999">
+    <row r="33" spans="1:9" ht="19">
       <c r="A33" s="3">
         <v>239267</v>
       </c>
@@ -1970,7 +1988,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="17.399999999999999">
+    <row r="34" spans="1:9" ht="19">
       <c r="A34" s="6">
         <v>239268</v>
       </c>
@@ -1993,7 +2011,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="17.399999999999999">
+    <row r="35" spans="1:9" ht="19">
       <c r="A35" s="6">
         <v>239269</v>
       </c>
@@ -2016,7 +2034,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="17.399999999999999">
+    <row r="36" spans="1:9" ht="19">
       <c r="A36" s="6">
         <v>239270</v>
       </c>
@@ -2039,7 +2057,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="17.399999999999999">
+    <row r="37" spans="1:9" ht="19">
       <c r="A37" s="6">
         <v>239271</v>
       </c>
@@ -2062,7 +2080,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="17.399999999999999">
+    <row r="38" spans="1:9" ht="19">
       <c r="A38" s="6">
         <v>239272</v>
       </c>
@@ -2085,7 +2103,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="17.399999999999999">
+    <row r="39" spans="1:9" ht="19">
       <c r="A39" s="6">
         <v>239273</v>
       </c>
@@ -2108,7 +2126,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="17.399999999999999">
+    <row r="40" spans="1:9" ht="19">
       <c r="A40" s="6">
         <v>239274</v>
       </c>
@@ -2131,7 +2149,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="17.399999999999999">
+    <row r="41" spans="1:9" ht="19">
       <c r="A41" s="6">
         <v>239275</v>
       </c>
@@ -2154,7 +2172,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="17.399999999999999">
+    <row r="42" spans="1:9" ht="19">
       <c r="A42" s="6">
         <v>239276</v>
       </c>
@@ -2177,7 +2195,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="17.399999999999999">
+    <row r="43" spans="1:9" ht="19">
       <c r="A43" s="6">
         <v>239277</v>
       </c>
@@ -2200,7 +2218,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="17.399999999999999">
+    <row r="44" spans="1:9" ht="19">
       <c r="A44" s="6">
         <v>239278</v>
       </c>
@@ -2223,7 +2241,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="17.399999999999999">
+    <row r="45" spans="1:9" ht="19">
       <c r="A45" s="6">
         <v>239279</v>
       </c>
@@ -2246,7 +2264,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="17.399999999999999">
+    <row r="46" spans="1:9" ht="19">
       <c r="A46" s="6">
         <v>239280</v>
       </c>
@@ -2269,7 +2287,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="17.399999999999999">
+    <row r="47" spans="1:9" ht="19">
       <c r="A47" s="6">
         <v>239281</v>
       </c>
@@ -2292,7 +2310,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="17.399999999999999">
+    <row r="48" spans="1:9" ht="19">
       <c r="A48" s="6">
         <v>239282</v>
       </c>
@@ -2315,7 +2333,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="17.399999999999999">
+    <row r="49" spans="1:9" ht="19">
       <c r="A49" s="6">
         <v>239283</v>
       </c>
@@ -2338,7 +2356,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="17.399999999999999">
+    <row r="50" spans="1:9" ht="19">
       <c r="A50" s="6">
         <v>239284</v>
       </c>
@@ -2361,7 +2379,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="17.399999999999999">
+    <row r="51" spans="1:9" ht="19">
       <c r="A51" s="6">
         <v>239285</v>
       </c>
@@ -2384,7 +2402,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="17.399999999999999">
+    <row r="52" spans="1:9" ht="19">
       <c r="A52" s="6">
         <v>239286</v>
       </c>
@@ -2407,7 +2425,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="17.399999999999999">
+    <row r="53" spans="1:9" ht="19">
       <c r="A53" s="6">
         <v>239287</v>
       </c>
@@ -2430,7 +2448,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="17.399999999999999">
+    <row r="54" spans="1:9" ht="19">
       <c r="A54" s="6">
         <v>239288</v>
       </c>
@@ -2453,7 +2471,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="17.399999999999999">
+    <row r="55" spans="1:9" ht="19">
       <c r="A55" s="6">
         <v>239289</v>
       </c>
@@ -2476,7 +2494,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="17.399999999999999">
+    <row r="56" spans="1:9" ht="19">
       <c r="A56" s="6">
         <v>239290</v>
       </c>
@@ -2498,7 +2516,7 @@
       <c r="G56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="17.399999999999999">
+    <row r="57" spans="1:9" ht="19">
       <c r="A57" s="6">
         <v>239291</v>
       </c>
@@ -2518,7 +2536,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17.399999999999999">
+    <row r="58" spans="1:9" ht="19">
       <c r="A58" s="6">
         <v>239292</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17.399999999999999">
+    <row r="59" spans="1:9" ht="19">
       <c r="A59" s="6">
         <v>239293</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18" thickBot="1">
+    <row r="60" spans="1:9" ht="20" thickBot="1">
       <c r="A60" s="8">
         <v>239294</v>
       </c>
@@ -2578,7 +2596,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17.399999999999999">
+    <row r="61" spans="1:9" ht="19">
       <c r="A61" s="3">
         <v>239295</v>
       </c>
@@ -2598,7 +2616,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="17.399999999999999">
+    <row r="62" spans="1:9" ht="19">
       <c r="A62" s="6">
         <v>239296</v>
       </c>
@@ -2618,7 +2636,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="17.399999999999999">
+    <row r="63" spans="1:9" ht="19">
       <c r="A63" s="6">
         <v>239297</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17.399999999999999">
+    <row r="64" spans="1:9" ht="19">
       <c r="A64" s="6">
         <v>239298</v>
       </c>
@@ -2658,7 +2676,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.399999999999999">
+    <row r="65" spans="1:6" ht="19">
       <c r="A65" s="6">
         <v>239299</v>
       </c>
@@ -2678,7 +2696,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.399999999999999">
+    <row r="66" spans="1:6" ht="19">
       <c r="A66" s="6">
         <v>239300</v>
       </c>
@@ -2698,7 +2716,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.399999999999999">
+    <row r="67" spans="1:6" ht="19">
       <c r="A67" s="6">
         <v>239301</v>
       </c>
@@ -2718,7 +2736,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.399999999999999">
+    <row r="68" spans="1:6" ht="19">
       <c r="A68" s="6">
         <v>239302</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.399999999999999">
+    <row r="69" spans="1:6" ht="19">
       <c r="A69" s="6">
         <v>239303</v>
       </c>
@@ -2758,7 +2776,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.399999999999999">
+    <row r="70" spans="1:6" ht="19">
       <c r="A70" s="6">
         <v>239304</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.399999999999999">
+    <row r="71" spans="1:6" ht="19">
       <c r="A71" s="6">
         <v>239305</v>
       </c>
@@ -2798,7 +2816,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.399999999999999">
+    <row r="72" spans="1:6" ht="19">
       <c r="A72" s="6">
         <v>239306</v>
       </c>
@@ -2818,7 +2836,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.399999999999999">
+    <row r="73" spans="1:6" ht="19">
       <c r="A73" s="6">
         <v>239307</v>
       </c>
@@ -2838,7 +2856,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.399999999999999">
+    <row r="74" spans="1:6" ht="19">
       <c r="A74" s="6">
         <v>239308</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.399999999999999">
+    <row r="75" spans="1:6" ht="19">
       <c r="A75" s="6">
         <v>239309</v>
       </c>
@@ -2878,7 +2896,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.399999999999999">
+    <row r="76" spans="1:6" ht="19">
       <c r="A76" s="6">
         <v>239310</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.399999999999999">
+    <row r="77" spans="1:6" ht="19">
       <c r="A77" s="6">
         <v>239311</v>
       </c>
@@ -2918,7 +2936,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.399999999999999">
+    <row r="78" spans="1:6" ht="19">
       <c r="A78" s="6">
         <v>239312</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.399999999999999">
+    <row r="79" spans="1:6" ht="19">
       <c r="A79" s="6">
         <v>239313</v>
       </c>
@@ -2958,7 +2976,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.399999999999999">
+    <row r="80" spans="1:6" ht="19">
       <c r="A80" s="6">
         <v>239314</v>
       </c>
@@ -2978,7 +2996,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.399999999999999">
+    <row r="81" spans="1:6" ht="19">
       <c r="A81" s="6">
         <v>239315</v>
       </c>
@@ -2998,7 +3016,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.399999999999999">
+    <row r="82" spans="1:6" ht="19">
       <c r="A82" s="6">
         <v>239316</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.399999999999999">
+    <row r="83" spans="1:6" ht="19">
       <c r="A83" s="6">
         <v>239317</v>
       </c>
@@ -3038,7 +3056,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.399999999999999">
+    <row r="84" spans="1:6" ht="19">
       <c r="A84" s="6">
         <v>239318</v>
       </c>
@@ -3058,7 +3076,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.399999999999999">
+    <row r="85" spans="1:6" ht="19">
       <c r="A85" s="6">
         <v>239319</v>
       </c>
@@ -3078,7 +3096,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.399999999999999">
+    <row r="86" spans="1:6" ht="19">
       <c r="A86" s="6">
         <v>239320</v>
       </c>
@@ -3098,7 +3116,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.399999999999999">
+    <row r="87" spans="1:6" ht="19">
       <c r="A87" s="6">
         <v>239321</v>
       </c>
@@ -3118,7 +3136,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.399999999999999">
+    <row r="88" spans="1:6" ht="19">
       <c r="A88" s="6">
         <v>239322</v>
       </c>
@@ -3138,7 +3156,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.399999999999999">
+    <row r="89" spans="1:6" ht="19">
       <c r="A89" s="6">
         <v>239323</v>
       </c>
@@ -3158,7 +3176,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.399999999999999">
+    <row r="90" spans="1:6" ht="19">
       <c r="A90" s="6">
         <v>239324</v>
       </c>
@@ -3178,7 +3196,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18" thickBot="1">
+    <row r="91" spans="1:6" ht="20" thickBot="1">
       <c r="A91" s="8">
         <v>239325</v>
       </c>
@@ -3198,7 +3216,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.399999999999999">
+    <row r="92" spans="1:6" ht="19">
       <c r="A92" s="3">
         <v>239326</v>
       </c>
@@ -3218,7 +3236,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.399999999999999">
+    <row r="93" spans="1:6" ht="19">
       <c r="A93" s="6">
         <v>239327</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.399999999999999">
+    <row r="94" spans="1:6" ht="19">
       <c r="A94" s="6">
         <v>239328</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.399999999999999">
+    <row r="95" spans="1:6" ht="19">
       <c r="A95" s="6">
         <v>239329</v>
       </c>
@@ -3278,7 +3296,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.399999999999999">
+    <row r="96" spans="1:6" ht="19">
       <c r="A96" s="6">
         <v>239330</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.399999999999999">
+    <row r="97" spans="1:6" ht="19">
       <c r="A97" s="6">
         <v>239331</v>
       </c>
@@ -3318,7 +3336,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.399999999999999">
+    <row r="98" spans="1:6" ht="19">
       <c r="A98" s="6">
         <v>239332</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.399999999999999">
+    <row r="99" spans="1:6" ht="19">
       <c r="A99" s="6">
         <v>239333</v>
       </c>
@@ -3358,7 +3376,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.399999999999999">
+    <row r="100" spans="1:6" ht="19">
       <c r="A100" s="6">
         <v>239334</v>
       </c>
@@ -3378,7 +3396,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.399999999999999">
+    <row r="101" spans="1:6" ht="19">
       <c r="A101" s="6">
         <v>239335</v>
       </c>
@@ -3398,7 +3416,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.399999999999999">
+    <row r="102" spans="1:6" ht="19">
       <c r="A102" s="6">
         <v>239336</v>
       </c>
@@ -3418,7 +3436,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.399999999999999">
+    <row r="103" spans="1:6" ht="19">
       <c r="A103" s="6">
         <v>239337</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.399999999999999">
+    <row r="104" spans="1:6" ht="19">
       <c r="A104" s="6">
         <v>239338</v>
       </c>
@@ -3458,7 +3476,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.399999999999999">
+    <row r="105" spans="1:6" ht="19">
       <c r="A105" s="6">
         <v>239339</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.399999999999999">
+    <row r="106" spans="1:6" ht="19">
       <c r="A106" s="6">
         <v>239340</v>
       </c>
@@ -3498,7 +3516,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.399999999999999">
+    <row r="107" spans="1:6" ht="19">
       <c r="A107" s="6">
         <v>239341</v>
       </c>
@@ -3518,7 +3536,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.399999999999999">
+    <row r="108" spans="1:6" ht="19">
       <c r="A108" s="6">
         <v>239342</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.399999999999999">
+    <row r="109" spans="1:6" ht="19">
       <c r="A109" s="6">
         <v>239343</v>
       </c>
@@ -3558,7 +3576,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.399999999999999">
+    <row r="110" spans="1:6" ht="19">
       <c r="A110" s="6">
         <v>239344</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.399999999999999">
+    <row r="111" spans="1:6" ht="19">
       <c r="A111" s="6">
         <v>239345</v>
       </c>
@@ -3598,7 +3616,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.399999999999999">
+    <row r="112" spans="1:6" ht="19">
       <c r="A112" s="6">
         <v>239346</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.399999999999999">
+    <row r="113" spans="1:6" ht="19">
       <c r="A113" s="6">
         <v>239347</v>
       </c>
@@ -3638,7 +3656,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.399999999999999">
+    <row r="114" spans="1:6" ht="19">
       <c r="A114" s="6">
         <v>239348</v>
       </c>
@@ -3658,7 +3676,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.399999999999999">
+    <row r="115" spans="1:6" ht="19">
       <c r="A115" s="6">
         <v>239349</v>
       </c>
@@ -3678,7 +3696,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.399999999999999">
+    <row r="116" spans="1:6" ht="19">
       <c r="A116" s="6">
         <v>239350</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.399999999999999">
+    <row r="117" spans="1:6" ht="19">
       <c r="A117" s="6">
         <v>239351</v>
       </c>
@@ -3718,7 +3736,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.399999999999999">
+    <row r="118" spans="1:6" ht="19">
       <c r="A118" s="6">
         <v>239352</v>
       </c>
@@ -3738,7 +3756,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.399999999999999">
+    <row r="119" spans="1:6" ht="19">
       <c r="A119" s="6">
         <v>239353</v>
       </c>
@@ -3758,7 +3776,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.399999999999999">
+    <row r="120" spans="1:6" ht="19">
       <c r="A120" s="6">
         <v>239354</v>
       </c>
@@ -3778,7 +3796,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18" thickBot="1">
+    <row r="121" spans="1:6" ht="20" thickBot="1">
       <c r="A121" s="8">
         <v>239355</v>
       </c>
@@ -3798,7 +3816,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.399999999999999">
+    <row r="122" spans="1:6" ht="19">
       <c r="A122" s="3">
         <v>239356</v>
       </c>
@@ -3818,7 +3836,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.399999999999999">
+    <row r="123" spans="1:6" ht="19">
       <c r="A123" s="6">
         <v>239357</v>
       </c>
@@ -3838,7 +3856,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.399999999999999">
+    <row r="124" spans="1:6" ht="19">
       <c r="A124" s="6">
         <v>239358</v>
       </c>
@@ -3858,7 +3876,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.399999999999999">
+    <row r="125" spans="1:6" ht="19">
       <c r="A125" s="6">
         <v>239359</v>
       </c>
@@ -3878,7 +3896,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.399999999999999">
+    <row r="126" spans="1:6" ht="19">
       <c r="A126" s="6">
         <v>239360</v>
       </c>
@@ -3898,7 +3916,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.399999999999999">
+    <row r="127" spans="1:6" ht="19">
       <c r="A127" s="6">
         <v>239361</v>
       </c>
@@ -3918,7 +3936,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.399999999999999">
+    <row r="128" spans="1:6" ht="19">
       <c r="A128" s="6">
         <v>239362</v>
       </c>
@@ -3938,7 +3956,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.399999999999999">
+    <row r="129" spans="1:6" ht="19">
       <c r="A129" s="6">
         <v>239363</v>
       </c>
@@ -3958,7 +3976,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.399999999999999">
+    <row r="130" spans="1:6" ht="19">
       <c r="A130" s="6">
         <v>239364</v>
       </c>
@@ -3978,7 +3996,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.399999999999999">
+    <row r="131" spans="1:6" ht="19">
       <c r="A131" s="6">
         <v>239365</v>
       </c>
@@ -3998,7 +4016,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.399999999999999">
+    <row r="132" spans="1:6" ht="19">
       <c r="A132" s="6">
         <v>239366</v>
       </c>
@@ -4018,7 +4036,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.399999999999999">
+    <row r="133" spans="1:6" ht="19">
       <c r="A133" s="6">
         <v>239367</v>
       </c>
@@ -4038,7 +4056,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.399999999999999">
+    <row r="134" spans="1:6" ht="19">
       <c r="A134" s="6">
         <v>239368</v>
       </c>
@@ -4058,7 +4076,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="17.399999999999999">
+    <row r="135" spans="1:6" ht="19">
       <c r="A135" s="6">
         <v>239369</v>
       </c>
@@ -4078,7 +4096,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="17.399999999999999">
+    <row r="136" spans="1:6" ht="19">
       <c r="A136" s="6">
         <v>239370</v>
       </c>
@@ -4098,7 +4116,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17.399999999999999">
+    <row r="137" spans="1:6" ht="19">
       <c r="A137" s="6">
         <v>239371</v>
       </c>
@@ -4118,7 +4136,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.399999999999999">
+    <row r="138" spans="1:6" ht="19">
       <c r="A138" s="6">
         <v>239372</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="17.399999999999999">
+    <row r="139" spans="1:6" ht="19">
       <c r="A139" s="6">
         <v>239373</v>
       </c>
@@ -4158,7 +4176,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="17.399999999999999">
+    <row r="140" spans="1:6" ht="19">
       <c r="A140" s="6">
         <v>239374</v>
       </c>
@@ -4178,7 +4196,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="17.399999999999999">
+    <row r="141" spans="1:6" ht="19">
       <c r="A141" s="6">
         <v>239375</v>
       </c>
@@ -4198,7 +4216,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="17.399999999999999">
+    <row r="142" spans="1:6" ht="19">
       <c r="A142" s="6">
         <v>239376</v>
       </c>
@@ -4218,7 +4236,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="17.399999999999999">
+    <row r="143" spans="1:6" ht="19">
       <c r="A143" s="6">
         <v>239377</v>
       </c>
@@ -4238,7 +4256,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="17.399999999999999">
+    <row r="144" spans="1:6" ht="19">
       <c r="A144" s="6">
         <v>239378</v>
       </c>
@@ -4258,7 +4276,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="17.399999999999999">
+    <row r="145" spans="1:6" ht="19">
       <c r="A145" s="6">
         <v>239379</v>
       </c>
@@ -4278,7 +4296,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="17.399999999999999">
+    <row r="146" spans="1:6" ht="19">
       <c r="A146" s="6">
         <v>239380</v>
       </c>
@@ -4298,7 +4316,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="17.399999999999999">
+    <row r="147" spans="1:6" ht="19">
       <c r="A147" s="6">
         <v>239381</v>
       </c>
@@ -4318,7 +4336,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="17.399999999999999">
+    <row r="148" spans="1:6" ht="19">
       <c r="A148" s="6">
         <v>239382</v>
       </c>
@@ -4338,7 +4356,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="17.399999999999999">
+    <row r="149" spans="1:6" ht="19">
       <c r="A149" s="6">
         <v>239383</v>
       </c>
@@ -4358,7 +4376,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="17.399999999999999">
+    <row r="150" spans="1:6" ht="19">
       <c r="A150" s="6">
         <v>239384</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="17.399999999999999">
+    <row r="151" spans="1:6" ht="19">
       <c r="A151" s="6">
         <v>239385</v>
       </c>
@@ -4398,7 +4416,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="18" thickBot="1">
+    <row r="152" spans="1:6" ht="20" thickBot="1">
       <c r="A152" s="8">
         <v>239386</v>
       </c>
@@ -4418,7 +4436,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="17.399999999999999">
+    <row r="153" spans="1:6" ht="19">
       <c r="A153" s="3">
         <v>239387</v>
       </c>
@@ -4438,7 +4456,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="17.399999999999999">
+    <row r="154" spans="1:6" ht="19">
       <c r="A154" s="6">
         <v>239388</v>
       </c>
@@ -4458,7 +4476,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="17.399999999999999">
+    <row r="155" spans="1:6" ht="19">
       <c r="A155" s="6">
         <v>239389</v>
       </c>
@@ -4478,7 +4496,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="17.399999999999999">
+    <row r="156" spans="1:6" ht="19">
       <c r="A156" s="6">
         <v>239390</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="17.399999999999999">
+    <row r="157" spans="1:6" ht="19">
       <c r="A157" s="6">
         <v>239391</v>
       </c>
@@ -4518,7 +4536,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="17.399999999999999">
+    <row r="158" spans="1:6" ht="19">
       <c r="A158" s="6">
         <v>239392</v>
       </c>
@@ -4538,7 +4556,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="17.399999999999999">
+    <row r="159" spans="1:6" ht="19">
       <c r="A159" s="6">
         <v>239393</v>
       </c>
@@ -4558,7 +4576,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="17.399999999999999">
+    <row r="160" spans="1:6" ht="19">
       <c r="A160" s="6">
         <v>239394</v>
       </c>
@@ -4578,7 +4596,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="17.399999999999999">
+    <row r="161" spans="1:6" ht="19">
       <c r="A161" s="6">
         <v>239395</v>
       </c>
@@ -4598,7 +4616,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="17.399999999999999">
+    <row r="162" spans="1:6" ht="19">
       <c r="A162" s="6">
         <v>239396</v>
       </c>
@@ -4618,7 +4636,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="17.399999999999999">
+    <row r="163" spans="1:6" ht="19">
       <c r="A163" s="6">
         <v>239397</v>
       </c>
@@ -4638,7 +4656,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="17.399999999999999">
+    <row r="164" spans="1:6" ht="19">
       <c r="A164" s="6">
         <v>239398</v>
       </c>
@@ -4658,7 +4676,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="17.399999999999999">
+    <row r="165" spans="1:6" ht="19">
       <c r="A165" s="6">
         <v>239399</v>
       </c>
@@ -4678,7 +4696,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="17.399999999999999">
+    <row r="166" spans="1:6" ht="19">
       <c r="A166" s="6">
         <v>239400</v>
       </c>
@@ -4698,7 +4716,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="17.399999999999999">
+    <row r="167" spans="1:6" ht="19">
       <c r="A167" s="6">
         <v>239401</v>
       </c>
@@ -4718,7 +4736,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="17.399999999999999">
+    <row r="168" spans="1:6" ht="19">
       <c r="A168" s="6">
         <v>239402</v>
       </c>
@@ -4738,7 +4756,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="17.399999999999999">
+    <row r="169" spans="1:6" ht="19">
       <c r="A169" s="6">
         <v>239403</v>
       </c>
@@ -4758,7 +4776,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="17.399999999999999">
+    <row r="170" spans="1:6" ht="19">
       <c r="A170" s="6">
         <v>239404</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="17.399999999999999">
+    <row r="171" spans="1:6" ht="19">
       <c r="A171" s="6">
         <v>239405</v>
       </c>
@@ -4798,7 +4816,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="17.399999999999999">
+    <row r="172" spans="1:6" ht="19">
       <c r="A172" s="6">
         <v>239406</v>
       </c>
@@ -4818,7 +4836,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="17.399999999999999">
+    <row r="173" spans="1:6" ht="19">
       <c r="A173" s="6">
         <v>239407</v>
       </c>
@@ -4838,7 +4856,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="17.399999999999999">
+    <row r="174" spans="1:6" ht="19">
       <c r="A174" s="6">
         <v>239408</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="17.399999999999999">
+    <row r="175" spans="1:6" ht="19">
       <c r="A175" s="6">
         <v>239409</v>
       </c>
@@ -4878,7 +4896,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="17.399999999999999">
+    <row r="176" spans="1:6" ht="19">
       <c r="A176" s="6">
         <v>239410</v>
       </c>
@@ -4898,7 +4916,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="17.399999999999999">
+    <row r="177" spans="1:6" ht="19">
       <c r="A177" s="6">
         <v>239411</v>
       </c>
@@ -4918,7 +4936,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="17.399999999999999">
+    <row r="178" spans="1:6" ht="19">
       <c r="A178" s="6">
         <v>239412</v>
       </c>
@@ -4938,7 +4956,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="17.399999999999999">
+    <row r="179" spans="1:6" ht="19">
       <c r="A179" s="6">
         <v>239413</v>
       </c>
@@ -4958,7 +4976,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="17.399999999999999">
+    <row r="180" spans="1:6" ht="19">
       <c r="A180" s="6">
         <v>239414</v>
       </c>
@@ -4978,7 +4996,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="17.399999999999999">
+    <row r="181" spans="1:6" ht="19">
       <c r="A181" s="6">
         <v>239415</v>
       </c>
@@ -4998,7 +5016,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="18" thickBot="1">
+    <row r="182" spans="1:6" ht="20" thickBot="1">
       <c r="A182" s="8">
         <v>239416</v>
       </c>
@@ -5018,7 +5036,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="17.399999999999999">
+    <row r="183" spans="1:6" ht="19">
       <c r="A183" s="3">
         <v>239417</v>
       </c>
@@ -5038,7 +5056,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="17.399999999999999">
+    <row r="184" spans="1:6" ht="19">
       <c r="A184" s="6">
         <v>239418</v>
       </c>
@@ -5058,7 +5076,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="17.399999999999999">
+    <row r="185" spans="1:6" ht="19">
       <c r="A185" s="6">
         <v>239419</v>
       </c>
@@ -5078,7 +5096,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="17.399999999999999">
+    <row r="186" spans="1:6" ht="19">
       <c r="A186" s="6">
         <v>239420</v>
       </c>
@@ -5098,7 +5116,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="17.399999999999999">
+    <row r="187" spans="1:6" ht="19">
       <c r="A187" s="6">
         <v>239421</v>
       </c>
@@ -5118,7 +5136,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="17.399999999999999">
+    <row r="188" spans="1:6" ht="19">
       <c r="A188" s="6">
         <v>239422</v>
       </c>
@@ -5138,7 +5156,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="17.399999999999999">
+    <row r="189" spans="1:6" ht="19">
       <c r="A189" s="6">
         <v>239423</v>
       </c>
@@ -5158,7 +5176,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="17.399999999999999">
+    <row r="190" spans="1:6" ht="19">
       <c r="A190" s="6">
         <v>239424</v>
       </c>
@@ -5178,7 +5196,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="17.399999999999999">
+    <row r="191" spans="1:6" ht="19">
       <c r="A191" s="6">
         <v>239425</v>
       </c>
@@ -5198,7 +5216,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="17.399999999999999">
+    <row r="192" spans="1:6" ht="19">
       <c r="A192" s="6">
         <v>239426</v>
       </c>
@@ -5218,7 +5236,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="17.399999999999999">
+    <row r="193" spans="1:6" ht="19">
       <c r="A193" s="6">
         <v>239427</v>
       </c>
@@ -5238,7 +5256,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="17.399999999999999">
+    <row r="194" spans="1:6" ht="19">
       <c r="A194" s="6">
         <v>239428</v>
       </c>
@@ -5258,7 +5276,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="17.399999999999999">
+    <row r="195" spans="1:6" ht="19">
       <c r="A195" s="6">
         <v>239429</v>
       </c>
@@ -5278,7 +5296,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="17.399999999999999">
+    <row r="196" spans="1:6" ht="19">
       <c r="A196" s="6">
         <v>239430</v>
       </c>
@@ -5298,7 +5316,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="17.399999999999999">
+    <row r="197" spans="1:6" ht="19">
       <c r="A197" s="6">
         <v>239431</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="17.399999999999999">
+    <row r="198" spans="1:6" ht="19">
       <c r="A198" s="6">
         <v>239432</v>
       </c>
@@ -5338,7 +5356,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="17.399999999999999">
+    <row r="199" spans="1:6" ht="19">
       <c r="A199" s="6">
         <v>239433</v>
       </c>
@@ -5358,7 +5376,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="17.399999999999999">
+    <row r="200" spans="1:6" ht="19">
       <c r="A200" s="6">
         <v>239434</v>
       </c>
@@ -5378,7 +5396,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="17.399999999999999">
+    <row r="201" spans="1:6" ht="19">
       <c r="A201" s="6">
         <v>239435</v>
       </c>
@@ -5398,7 +5416,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="17.399999999999999">
+    <row r="202" spans="1:6" ht="19">
       <c r="A202" s="6">
         <v>239436</v>
       </c>
@@ -5418,7 +5436,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="17.399999999999999">
+    <row r="203" spans="1:6" ht="19">
       <c r="A203" s="6">
         <v>239437</v>
       </c>
@@ -5438,7 +5456,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="17.399999999999999">
+    <row r="204" spans="1:6" ht="19">
       <c r="A204" s="6">
         <v>239438</v>
       </c>
@@ -5458,7 +5476,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="17.399999999999999">
+    <row r="205" spans="1:6" ht="19">
       <c r="A205" s="6">
         <v>239439</v>
       </c>
@@ -5478,7 +5496,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="17.399999999999999">
+    <row r="206" spans="1:6" ht="19">
       <c r="A206" s="6">
         <v>239440</v>
       </c>
@@ -5498,7 +5516,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="17.399999999999999">
+    <row r="207" spans="1:6" ht="19">
       <c r="A207" s="6">
         <v>239441</v>
       </c>
@@ -5518,7 +5536,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="17.399999999999999">
+    <row r="208" spans="1:6" ht="19">
       <c r="A208" s="6">
         <v>239442</v>
       </c>
@@ -5538,7 +5556,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="17.399999999999999">
+    <row r="209" spans="1:6" ht="19">
       <c r="A209" s="6">
         <v>239443</v>
       </c>
@@ -5558,7 +5576,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="17.399999999999999">
+    <row r="210" spans="1:6" ht="19">
       <c r="A210" s="6">
         <v>239444</v>
       </c>
@@ -5578,7 +5596,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="17.399999999999999">
+    <row r="211" spans="1:6" ht="19">
       <c r="A211" s="6">
         <v>239445</v>
       </c>
@@ -5598,7 +5616,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="17.399999999999999">
+    <row r="212" spans="1:6" ht="19">
       <c r="A212" s="6">
         <v>239446</v>
       </c>
@@ -5618,7 +5636,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="18" thickBot="1">
+    <row r="213" spans="1:6" ht="20" thickBot="1">
       <c r="A213" s="8">
         <v>239447</v>
       </c>
@@ -5638,7 +5656,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="17.399999999999999">
+    <row r="214" spans="1:6" ht="19">
       <c r="A214" s="3">
         <v>239448</v>
       </c>
@@ -5658,7 +5676,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="17.399999999999999">
+    <row r="215" spans="1:6" ht="19">
       <c r="A215" s="6">
         <v>239449</v>
       </c>
@@ -5678,7 +5696,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="17.399999999999999">
+    <row r="216" spans="1:6" ht="19">
       <c r="A216" s="6">
         <v>239450</v>
       </c>
@@ -5698,7 +5716,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="17.399999999999999">
+    <row r="217" spans="1:6" ht="19">
       <c r="A217" s="6">
         <v>239451</v>
       </c>
@@ -5718,7 +5736,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="17.399999999999999">
+    <row r="218" spans="1:6" ht="19">
       <c r="A218" s="6">
         <v>239452</v>
       </c>
@@ -5738,7 +5756,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="17.399999999999999">
+    <row r="219" spans="1:6" ht="19">
       <c r="A219" s="6">
         <v>239453</v>
       </c>
@@ -5758,7 +5776,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="17.399999999999999">
+    <row r="220" spans="1:6" ht="19">
       <c r="A220" s="6">
         <v>239454</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="17.399999999999999">
+    <row r="221" spans="1:6" ht="19">
       <c r="A221" s="6">
         <v>239455</v>
       </c>
@@ -5798,7 +5816,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="17.399999999999999">
+    <row r="222" spans="1:6" ht="19">
       <c r="A222" s="6">
         <v>239456</v>
       </c>
@@ -5818,7 +5836,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="17.399999999999999">
+    <row r="223" spans="1:6" ht="19">
       <c r="A223" s="6">
         <v>239457</v>
       </c>
@@ -5838,7 +5856,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="17.399999999999999">
+    <row r="224" spans="1:6" ht="19">
       <c r="A224" s="6">
         <v>239458</v>
       </c>
@@ -5858,7 +5876,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="17.399999999999999">
+    <row r="225" spans="1:6" ht="19">
       <c r="A225" s="6">
         <v>239459</v>
       </c>
@@ -5878,7 +5896,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="17.399999999999999">
+    <row r="226" spans="1:6" ht="19">
       <c r="A226" s="6">
         <v>239460</v>
       </c>
@@ -5898,7 +5916,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="17.399999999999999">
+    <row r="227" spans="1:6" ht="19">
       <c r="A227" s="6">
         <v>239461</v>
       </c>
@@ -5918,7 +5936,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="17.399999999999999">
+    <row r="228" spans="1:6" ht="19">
       <c r="A228" s="6">
         <v>239462</v>
       </c>
@@ -5938,7 +5956,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="17.399999999999999">
+    <row r="229" spans="1:6" ht="19">
       <c r="A229" s="6">
         <v>239463</v>
       </c>
@@ -5958,7 +5976,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="17.399999999999999">
+    <row r="230" spans="1:6" ht="19">
       <c r="A230" s="6">
         <v>239464</v>
       </c>
@@ -5978,7 +5996,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="17.399999999999999">
+    <row r="231" spans="1:6" ht="19">
       <c r="A231" s="6">
         <v>239465</v>
       </c>
@@ -5998,7 +6016,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="17.399999999999999">
+    <row r="232" spans="1:6" ht="19">
       <c r="A232" s="6">
         <v>239466</v>
       </c>
@@ -6018,7 +6036,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="17.399999999999999">
+    <row r="233" spans="1:6" ht="19">
       <c r="A233" s="6">
         <v>239467</v>
       </c>
@@ -6038,7 +6056,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="17.399999999999999">
+    <row r="234" spans="1:6" ht="19">
       <c r="A234" s="6">
         <v>239468</v>
       </c>
@@ -6058,7 +6076,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="17.399999999999999">
+    <row r="235" spans="1:6" ht="19">
       <c r="A235" s="6">
         <v>239469</v>
       </c>
@@ -6078,7 +6096,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="17.399999999999999">
+    <row r="236" spans="1:6" ht="19">
       <c r="A236" s="6">
         <v>239470</v>
       </c>
@@ -6098,7 +6116,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="17.399999999999999">
+    <row r="237" spans="1:6" ht="19">
       <c r="A237" s="6">
         <v>239471</v>
       </c>
@@ -6118,7 +6136,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="17.399999999999999">
+    <row r="238" spans="1:6" ht="19">
       <c r="A238" s="6">
         <v>239472</v>
       </c>
@@ -6138,7 +6156,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="17.399999999999999">
+    <row r="239" spans="1:6" ht="19">
       <c r="A239" s="6">
         <v>239473</v>
       </c>
@@ -6158,7 +6176,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="17.399999999999999">
+    <row r="240" spans="1:6" ht="19">
       <c r="A240" s="6">
         <v>239474</v>
       </c>
@@ -6178,7 +6196,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="17.399999999999999">
+    <row r="241" spans="1:6" ht="19">
       <c r="A241" s="6">
         <v>239475</v>
       </c>
@@ -6198,7 +6216,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="17.399999999999999">
+    <row r="242" spans="1:6" ht="19">
       <c r="A242" s="6">
         <v>239476</v>
       </c>
@@ -6218,7 +6236,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="17.399999999999999">
+    <row r="243" spans="1:6" ht="19">
       <c r="A243" s="6">
         <v>239477</v>
       </c>
@@ -6238,7 +6256,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="18" thickBot="1">
+    <row r="244" spans="1:6" ht="20" thickBot="1">
       <c r="A244" s="8">
         <v>239478</v>
       </c>
@@ -6258,7 +6276,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="17.399999999999999">
+    <row r="245" spans="1:6" ht="19">
       <c r="A245" s="3">
         <v>239479</v>
       </c>
@@ -6278,7 +6296,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="17.399999999999999">
+    <row r="246" spans="1:6" ht="19">
       <c r="A246" s="6">
         <v>239480</v>
       </c>
@@ -6298,7 +6316,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="17.399999999999999">
+    <row r="247" spans="1:6" ht="19">
       <c r="A247" s="6">
         <v>239481</v>
       </c>
@@ -6318,7 +6336,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="17.399999999999999">
+    <row r="248" spans="1:6" ht="19">
       <c r="A248" s="6">
         <v>239482</v>
       </c>
@@ -6338,7 +6356,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="17.399999999999999">
+    <row r="249" spans="1:6" ht="19">
       <c r="A249" s="6">
         <v>239483</v>
       </c>
@@ -6358,7 +6376,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="17.399999999999999">
+    <row r="250" spans="1:6" ht="19">
       <c r="A250" s="6">
         <v>239484</v>
       </c>
@@ -6378,7 +6396,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="17.399999999999999">
+    <row r="251" spans="1:6" ht="19">
       <c r="A251" s="6">
         <v>239485</v>
       </c>
@@ -6398,7 +6416,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="17.399999999999999">
+    <row r="252" spans="1:6" ht="19">
       <c r="A252" s="6">
         <v>239486</v>
       </c>
@@ -6418,7 +6436,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="17.399999999999999">
+    <row r="253" spans="1:6" ht="19">
       <c r="A253" s="6">
         <v>239487</v>
       </c>
@@ -6438,7 +6456,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="17.399999999999999">
+    <row r="254" spans="1:6" ht="19">
       <c r="A254" s="6">
         <v>239488</v>
       </c>
@@ -6458,7 +6476,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="17.399999999999999">
+    <row r="255" spans="1:6" ht="19">
       <c r="A255" s="6">
         <v>239489</v>
       </c>
@@ -6478,7 +6496,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="17.399999999999999">
+    <row r="256" spans="1:6" ht="19">
       <c r="A256" s="6">
         <v>239490</v>
       </c>
@@ -6498,7 +6516,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="17.399999999999999">
+    <row r="257" spans="1:6" ht="19">
       <c r="A257" s="6">
         <v>239491</v>
       </c>
@@ -6518,7 +6536,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="17.399999999999999">
+    <row r="258" spans="1:6" ht="19">
       <c r="A258" s="6">
         <v>239492</v>
       </c>
@@ -6538,7 +6556,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="17.399999999999999">
+    <row r="259" spans="1:6" ht="19">
       <c r="A259" s="6">
         <v>239493</v>
       </c>
@@ -6558,7 +6576,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="17.399999999999999">
+    <row r="260" spans="1:6" ht="19">
       <c r="A260" s="6">
         <v>239494</v>
       </c>
@@ -6578,7 +6596,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="17.399999999999999">
+    <row r="261" spans="1:6" ht="19">
       <c r="A261" s="6">
         <v>239495</v>
       </c>
@@ -6598,7 +6616,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="17.399999999999999">
+    <row r="262" spans="1:6" ht="19">
       <c r="A262" s="6">
         <v>239496</v>
       </c>
@@ -6618,7 +6636,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="17.399999999999999">
+    <row r="263" spans="1:6" ht="19">
       <c r="A263" s="6">
         <v>239497</v>
       </c>
@@ -6638,7 +6656,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="17.399999999999999">
+    <row r="264" spans="1:6" ht="19">
       <c r="A264" s="6">
         <v>239498</v>
       </c>
@@ -6658,7 +6676,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="17.399999999999999">
+    <row r="265" spans="1:6" ht="19">
       <c r="A265" s="6">
         <v>239499</v>
       </c>
@@ -6678,7 +6696,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="17.399999999999999">
+    <row r="266" spans="1:6" ht="19">
       <c r="A266" s="6">
         <v>239500</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="17.399999999999999">
+    <row r="267" spans="1:6" ht="19">
       <c r="A267" s="6">
         <v>239501</v>
       </c>
@@ -6718,7 +6736,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="17.399999999999999">
+    <row r="268" spans="1:6" ht="19">
       <c r="A268" s="6">
         <v>239502</v>
       </c>
@@ -6738,7 +6756,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="17.399999999999999">
+    <row r="269" spans="1:6" ht="19">
       <c r="A269" s="6">
         <v>239503</v>
       </c>
@@ -6758,7 +6776,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="17.399999999999999">
+    <row r="270" spans="1:6" ht="19">
       <c r="A270" s="6">
         <v>239504</v>
       </c>
@@ -6778,7 +6796,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="17.399999999999999">
+    <row r="271" spans="1:6" ht="19">
       <c r="A271" s="6">
         <v>239505</v>
       </c>
@@ -6798,7 +6816,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="17.399999999999999">
+    <row r="272" spans="1:6" ht="19">
       <c r="A272" s="6">
         <v>239506</v>
       </c>
@@ -6818,7 +6836,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="17.399999999999999">
+    <row r="273" spans="1:6" ht="19">
       <c r="A273" s="6">
         <v>239507</v>
       </c>
@@ -6838,7 +6856,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="18" thickBot="1">
+    <row r="274" spans="1:6" ht="20" thickBot="1">
       <c r="A274" s="8">
         <v>239508</v>
       </c>
@@ -6858,7 +6876,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="17.399999999999999">
+    <row r="275" spans="1:6" ht="19">
       <c r="A275" s="3">
         <v>239509</v>
       </c>
@@ -6878,7 +6896,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="17.399999999999999">
+    <row r="276" spans="1:6" ht="19">
       <c r="A276" s="6">
         <v>239510</v>
       </c>
@@ -6898,7 +6916,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="17.399999999999999">
+    <row r="277" spans="1:6" ht="19">
       <c r="A277" s="6">
         <v>239511</v>
       </c>
@@ -6918,7 +6936,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="17.399999999999999">
+    <row r="278" spans="1:6" ht="19">
       <c r="A278" s="6">
         <v>239512</v>
       </c>
@@ -6938,7 +6956,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="17.399999999999999">
+    <row r="279" spans="1:6" ht="19">
       <c r="A279" s="6">
         <v>239513</v>
       </c>
@@ -6958,7 +6976,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="17.399999999999999">
+    <row r="280" spans="1:6" ht="19">
       <c r="A280" s="6">
         <v>239514</v>
       </c>
@@ -6978,7 +6996,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="17.399999999999999">
+    <row r="281" spans="1:6" ht="19">
       <c r="A281" s="6">
         <v>239515</v>
       </c>
@@ -6998,7 +7016,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="17.399999999999999">
+    <row r="282" spans="1:6" ht="19">
       <c r="A282" s="6">
         <v>239516</v>
       </c>
@@ -7018,7 +7036,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="17.399999999999999">
+    <row r="283" spans="1:6" ht="19">
       <c r="A283" s="6">
         <v>239517</v>
       </c>
@@ -7038,7 +7056,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="17.399999999999999">
+    <row r="284" spans="1:6" ht="19">
       <c r="A284" s="6">
         <v>239518</v>
       </c>
@@ -7058,7 +7076,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="17.399999999999999">
+    <row r="285" spans="1:6" ht="19">
       <c r="A285" s="6">
         <v>239519</v>
       </c>
@@ -7078,7 +7096,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="17.399999999999999">
+    <row r="286" spans="1:6" ht="19">
       <c r="A286" s="6">
         <v>239520</v>
       </c>
@@ -7098,7 +7116,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="17.399999999999999">
+    <row r="287" spans="1:6" ht="19">
       <c r="A287" s="6">
         <v>239521</v>
       </c>
@@ -7118,7 +7136,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="17.399999999999999">
+    <row r="288" spans="1:6" ht="19">
       <c r="A288" s="6">
         <v>239522</v>
       </c>
@@ -7138,7 +7156,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="17.399999999999999">
+    <row r="289" spans="1:6" ht="19">
       <c r="A289" s="6">
         <v>239523</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="17.399999999999999">
+    <row r="290" spans="1:6" ht="19">
       <c r="A290" s="6">
         <v>239524</v>
       </c>
@@ -7178,7 +7196,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="17.399999999999999">
+    <row r="291" spans="1:6" ht="19">
       <c r="A291" s="6">
         <v>239525</v>
       </c>
@@ -7198,7 +7216,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="17.399999999999999">
+    <row r="292" spans="1:6" ht="19">
       <c r="A292" s="6">
         <v>239526</v>
       </c>
@@ -7218,7 +7236,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="17.399999999999999">
+    <row r="293" spans="1:6" ht="19">
       <c r="A293" s="6">
         <v>239527</v>
       </c>
@@ -7238,7 +7256,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="17.399999999999999">
+    <row r="294" spans="1:6" ht="19">
       <c r="A294" s="6">
         <v>239528</v>
       </c>
@@ -7258,7 +7276,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="17.399999999999999">
+    <row r="295" spans="1:6" ht="19">
       <c r="A295" s="6">
         <v>239529</v>
       </c>
@@ -7278,7 +7296,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="17.399999999999999">
+    <row r="296" spans="1:6" ht="19">
       <c r="A296" s="6">
         <v>239530</v>
       </c>
@@ -7298,7 +7316,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="17.399999999999999">
+    <row r="297" spans="1:6" ht="19">
       <c r="A297" s="6">
         <v>239531</v>
       </c>
@@ -7318,7 +7336,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="17.399999999999999">
+    <row r="298" spans="1:6" ht="19">
       <c r="A298" s="6">
         <v>239532</v>
       </c>
@@ -7338,7 +7356,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="17.399999999999999">
+    <row r="299" spans="1:6" ht="19">
       <c r="A299" s="6">
         <v>239533</v>
       </c>
@@ -7358,7 +7376,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="17.399999999999999">
+    <row r="300" spans="1:6" ht="19">
       <c r="A300" s="6">
         <v>239534</v>
       </c>
@@ -7378,7 +7396,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="17.399999999999999">
+    <row r="301" spans="1:6" ht="19">
       <c r="A301" s="6">
         <v>239535</v>
       </c>
@@ -7398,7 +7416,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="17.399999999999999">
+    <row r="302" spans="1:6" ht="19">
       <c r="A302" s="6">
         <v>239536</v>
       </c>
@@ -7418,7 +7436,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="17.399999999999999">
+    <row r="303" spans="1:6" ht="19">
       <c r="A303" s="6">
         <v>239537</v>
       </c>
@@ -7438,7 +7456,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="17.399999999999999">
+    <row r="304" spans="1:6" ht="19">
       <c r="A304" s="6">
         <v>239538</v>
       </c>
@@ -7458,7 +7476,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="18" thickBot="1">
+    <row r="305" spans="1:6" ht="20" thickBot="1">
       <c r="A305" s="8">
         <v>239539</v>
       </c>
@@ -7478,7 +7496,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="17.399999999999999">
+    <row r="306" spans="1:6" ht="19">
       <c r="A306" s="3">
         <v>239540</v>
       </c>
@@ -7498,7 +7516,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="17.399999999999999">
+    <row r="307" spans="1:6" ht="19">
       <c r="A307" s="6">
         <v>239541</v>
       </c>
@@ -7518,7 +7536,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="17.399999999999999">
+    <row r="308" spans="1:6" ht="19">
       <c r="A308" s="6">
         <v>239542</v>
       </c>
@@ -7538,7 +7556,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="17.399999999999999">
+    <row r="309" spans="1:6" ht="19">
       <c r="A309" s="6">
         <v>239543</v>
       </c>
@@ -7558,7 +7576,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="17.399999999999999">
+    <row r="310" spans="1:6" ht="19">
       <c r="A310" s="6">
         <v>239544</v>
       </c>
@@ -7578,7 +7596,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="17.399999999999999">
+    <row r="311" spans="1:6" ht="19">
       <c r="A311" s="6">
         <v>239545</v>
       </c>
@@ -7598,7 +7616,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="17.399999999999999">
+    <row r="312" spans="1:6" ht="19">
       <c r="A312" s="6">
         <v>239546</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="17.399999999999999">
+    <row r="313" spans="1:6" ht="19">
       <c r="A313" s="6">
         <v>239547</v>
       </c>
@@ -7638,7 +7656,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="17.399999999999999">
+    <row r="314" spans="1:6" ht="19">
       <c r="A314" s="6">
         <v>239548</v>
       </c>
@@ -7658,7 +7676,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="17.399999999999999">
+    <row r="315" spans="1:6" ht="19">
       <c r="A315" s="6">
         <v>239549</v>
       </c>
@@ -7678,7 +7696,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="17.399999999999999">
+    <row r="316" spans="1:6" ht="19">
       <c r="A316" s="6">
         <v>239550</v>
       </c>
@@ -7698,7 +7716,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="17.399999999999999">
+    <row r="317" spans="1:6" ht="19">
       <c r="A317" s="6">
         <v>239551</v>
       </c>
@@ -7718,7 +7736,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="17.399999999999999">
+    <row r="318" spans="1:6" ht="19">
       <c r="A318" s="6">
         <v>239552</v>
       </c>
@@ -7738,7 +7756,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="17.399999999999999">
+    <row r="319" spans="1:6" ht="19">
       <c r="A319" s="6">
         <v>239553</v>
       </c>
@@ -7758,7 +7776,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="17.399999999999999">
+    <row r="320" spans="1:6" ht="19">
       <c r="A320" s="6">
         <v>239554</v>
       </c>
@@ -7778,7 +7796,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="17.399999999999999">
+    <row r="321" spans="1:6" ht="19">
       <c r="A321" s="6">
         <v>239555</v>
       </c>
@@ -7798,7 +7816,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="17.399999999999999">
+    <row r="322" spans="1:6" ht="19">
       <c r="A322" s="6">
         <v>239556</v>
       </c>
@@ -7818,7 +7836,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="17.399999999999999">
+    <row r="323" spans="1:6" ht="19">
       <c r="A323" s="6">
         <v>239557</v>
       </c>
@@ -7838,7 +7856,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="17.399999999999999">
+    <row r="324" spans="1:6" ht="19">
       <c r="A324" s="6">
         <v>239558</v>
       </c>
@@ -7858,7 +7876,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="17.399999999999999">
+    <row r="325" spans="1:6" ht="19">
       <c r="A325" s="6">
         <v>239559</v>
       </c>
@@ -7878,7 +7896,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="17.399999999999999">
+    <row r="326" spans="1:6" ht="19">
       <c r="A326" s="6">
         <v>239560</v>
       </c>
@@ -7898,7 +7916,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="17.399999999999999">
+    <row r="327" spans="1:6" ht="19">
       <c r="A327" s="6">
         <v>239561</v>
       </c>
@@ -7918,7 +7936,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="17.399999999999999">
+    <row r="328" spans="1:6" ht="19">
       <c r="A328" s="6">
         <v>239562</v>
       </c>
@@ -7938,7 +7956,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="17.399999999999999">
+    <row r="329" spans="1:6" ht="19">
       <c r="A329" s="6">
         <v>239563</v>
       </c>
@@ -7958,7 +7976,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="17.399999999999999">
+    <row r="330" spans="1:6" ht="19">
       <c r="A330" s="6">
         <v>239564</v>
       </c>
@@ -7978,7 +7996,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="17.399999999999999">
+    <row r="331" spans="1:6" ht="19">
       <c r="A331" s="6">
         <v>239565</v>
       </c>
@@ -7998,7 +8016,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="17.399999999999999">
+    <row r="332" spans="1:6" ht="19">
       <c r="A332" s="6">
         <v>239566</v>
       </c>
@@ -8018,7 +8036,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="17.399999999999999">
+    <row r="333" spans="1:6" ht="19">
       <c r="A333" s="6">
         <v>239567</v>
       </c>
@@ -8038,7 +8056,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="17.399999999999999">
+    <row r="334" spans="1:6" ht="19">
       <c r="A334" s="6">
         <v>239568</v>
       </c>
@@ -8058,7 +8076,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="18" thickBot="1">
+    <row r="335" spans="1:6" ht="20" thickBot="1">
       <c r="A335" s="8">
         <v>239569</v>
       </c>
@@ -8078,7 +8096,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="17.399999999999999">
+    <row r="336" spans="1:6" ht="19">
       <c r="A336" s="3">
         <v>239570</v>
       </c>
@@ -8098,7 +8116,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="17.399999999999999">
+    <row r="337" spans="1:6" ht="19">
       <c r="A337" s="6">
         <v>239571</v>
       </c>
@@ -8118,7 +8136,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="17.399999999999999">
+    <row r="338" spans="1:6" ht="19">
       <c r="A338" s="6">
         <v>239572</v>
       </c>
@@ -8138,7 +8156,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="17.399999999999999">
+    <row r="339" spans="1:6" ht="19">
       <c r="A339" s="6">
         <v>239573</v>
       </c>
@@ -8158,7 +8176,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="17.399999999999999">
+    <row r="340" spans="1:6" ht="19">
       <c r="A340" s="6">
         <v>239574</v>
       </c>
@@ -8178,7 +8196,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="17.399999999999999">
+    <row r="341" spans="1:6" ht="19">
       <c r="A341" s="6">
         <v>239575</v>
       </c>
@@ -8198,7 +8216,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="17.399999999999999">
+    <row r="342" spans="1:6" ht="19">
       <c r="A342" s="6">
         <v>239576</v>
       </c>
@@ -8218,7 +8236,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="17.399999999999999">
+    <row r="343" spans="1:6" ht="19">
       <c r="A343" s="6">
         <v>239577</v>
       </c>
@@ -8238,7 +8256,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="17.399999999999999">
+    <row r="344" spans="1:6" ht="19">
       <c r="A344" s="6">
         <v>239578</v>
       </c>
@@ -8258,7 +8276,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="17.399999999999999">
+    <row r="345" spans="1:6" ht="19">
       <c r="A345" s="6">
         <v>239579</v>
       </c>
@@ -8278,7 +8296,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="17.399999999999999">
+    <row r="346" spans="1:6" ht="19">
       <c r="A346" s="6">
         <v>239580</v>
       </c>
@@ -8298,7 +8316,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="17.399999999999999">
+    <row r="347" spans="1:6" ht="19">
       <c r="A347" s="6">
         <v>239581</v>
       </c>
@@ -8318,7 +8336,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="17.399999999999999">
+    <row r="348" spans="1:6" ht="19">
       <c r="A348" s="6">
         <v>239582</v>
       </c>
@@ -8338,7 +8356,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="17.399999999999999">
+    <row r="349" spans="1:6" ht="19">
       <c r="A349" s="6">
         <v>239583</v>
       </c>
@@ -8358,7 +8376,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="17.399999999999999">
+    <row r="350" spans="1:6" ht="19">
       <c r="A350" s="6">
         <v>239584</v>
       </c>
@@ -8378,7 +8396,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="17.399999999999999">
+    <row r="351" spans="1:6" ht="19">
       <c r="A351" s="6">
         <v>239585</v>
       </c>
@@ -8398,7 +8416,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="17.399999999999999">
+    <row r="352" spans="1:6" ht="19">
       <c r="A352" s="6">
         <v>239586</v>
       </c>
@@ -8418,7 +8436,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="17.399999999999999">
+    <row r="353" spans="1:6" ht="19">
       <c r="A353" s="6">
         <v>239587</v>
       </c>
@@ -8438,7 +8456,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="17.399999999999999">
+    <row r="354" spans="1:6" ht="19">
       <c r="A354" s="6">
         <v>239588</v>
       </c>
@@ -8458,7 +8476,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="17.399999999999999">
+    <row r="355" spans="1:6" ht="19">
       <c r="A355" s="6">
         <v>239589</v>
       </c>
@@ -8478,7 +8496,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="17.399999999999999">
+    <row r="356" spans="1:6" ht="19">
       <c r="A356" s="6">
         <v>239590</v>
       </c>
@@ -8498,7 +8516,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="17.399999999999999">
+    <row r="357" spans="1:6" ht="19">
       <c r="A357" s="6">
         <v>239591</v>
       </c>
@@ -8518,7 +8536,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="17.399999999999999">
+    <row r="358" spans="1:6" ht="19">
       <c r="A358" s="6">
         <v>239592</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="17.399999999999999">
+    <row r="359" spans="1:6" ht="19">
       <c r="A359" s="6">
         <v>239593</v>
       </c>
@@ -8558,7 +8576,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="17.399999999999999">
+    <row r="360" spans="1:6" ht="19">
       <c r="A360" s="6">
         <v>239594</v>
       </c>
@@ -8578,7 +8596,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="17.399999999999999">
+    <row r="361" spans="1:6" ht="19">
       <c r="A361" s="6">
         <v>239595</v>
       </c>
@@ -8598,7 +8616,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="17.399999999999999">
+    <row r="362" spans="1:6" ht="19">
       <c r="A362" s="6">
         <v>239596</v>
       </c>
@@ -8618,7 +8636,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="17.399999999999999">
+    <row r="363" spans="1:6" ht="19">
       <c r="A363" s="6">
         <v>239597</v>
       </c>
@@ -8638,7 +8656,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="17.399999999999999">
+    <row r="364" spans="1:6" ht="19">
       <c r="A364" s="6">
         <v>239598</v>
       </c>
@@ -8658,7 +8676,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="17.399999999999999">
+    <row r="365" spans="1:6" ht="19">
       <c r="A365" s="6">
         <v>239599</v>
       </c>
@@ -8678,7 +8696,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="18" thickBot="1">
+    <row r="366" spans="1:6" ht="20" thickBot="1">
       <c r="A366" s="8">
         <v>239600</v>
       </c>
@@ -8709,24 +8727,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276FEFAF-C5C9-4123-A6CD-0932162EB4C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F0554C-3C3F-FD49-9C0B-53867F32012C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="247" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1">
+    <row r="1" spans="1:6" ht="17" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -8741,306 +8756,306 @@
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="39">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42">
-        <f>AVERAGE('2555'!B2:B32)</f>
+      <c r="A2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B2:B32)</f>
         <v>34.692258064516132</v>
       </c>
-      <c r="C2" s="43">
-        <f>AVERAGE('2555'!C2:C32)</f>
+      <c r="C2" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!C2:C32)</f>
         <v>36.442258064516132</v>
       </c>
-      <c r="D2" s="43">
-        <f>AVERAGE('2555'!D2:D32)</f>
+      <c r="D2" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!D2:D32)</f>
         <v>33.692258064516132</v>
       </c>
-      <c r="E2" s="43">
-        <f>AVERAGE('2555'!E2:E32)</f>
+      <c r="E2" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!E2:E32)</f>
         <v>22.085806451612896</v>
       </c>
-      <c r="F2" s="44">
-        <f>AVERAGE('2555'!F2:F32)</f>
+      <c r="F2" s="28">
+        <f>AVERAGE(ราคาน้ำมัน!F2:F32)</f>
         <v>30.510645161290324</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="40">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45">
-        <f>AVERAGE('2555'!B33:B60)</f>
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B33:B60)</f>
         <v>36.731785714285706</v>
       </c>
       <c r="C3" s="27">
-        <f>AVERAGE('2555'!C33:C60)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C33:C60)</f>
         <v>38.481785714285714</v>
       </c>
       <c r="D3" s="27">
-        <f>AVERAGE('2555'!D33:D60)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D33:D60)</f>
         <v>35.731785714285706</v>
       </c>
       <c r="E3" s="27">
-        <f>AVERAGE('2555'!E33:E60)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E33:E60)</f>
         <v>22.817499999999988</v>
       </c>
       <c r="F3" s="28">
-        <f>AVERAGE('2555'!F33:F60)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F33:F60)</f>
         <v>31.297857142857147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="40">
-        <v>3</v>
-      </c>
-      <c r="B4" s="45">
-        <f>AVERAGE('2555'!B61:B91)</f>
+      <c r="A4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B61:B91)</f>
         <v>38.267096774193554</v>
       </c>
       <c r="C4" s="27">
-        <f>AVERAGE('2555'!C61:C91)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C61:C91)</f>
         <v>40.017096774193554</v>
       </c>
       <c r="D4" s="27">
-        <f>AVERAGE('2555'!D61:D91)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D61:D91)</f>
         <v>37.267096774193554</v>
       </c>
       <c r="E4" s="27">
-        <f>AVERAGE('2555'!E61:E91)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E61:E91)</f>
         <v>23.873548387096786</v>
       </c>
       <c r="F4" s="28">
-        <f>AVERAGE('2555'!F61:F91)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F61:F91)</f>
         <v>32.11709677419357</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="40">
-        <v>4</v>
-      </c>
-      <c r="B5" s="45">
-        <f>AVERAGE('2555'!B92:B121)</f>
+      <c r="A5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B92:B121)</f>
         <v>38.576666666666647</v>
       </c>
       <c r="C5" s="27">
-        <f>AVERAGE('2555'!C92:C121)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C92:C121)</f>
         <v>40.326666666666647</v>
       </c>
       <c r="D5" s="27">
-        <f>AVERAGE('2555'!D92:D121)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D92:D121)</f>
         <v>37.576666666666647</v>
       </c>
       <c r="E5" s="27">
-        <f>AVERAGE('2555'!E92:E121)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E92:E121)</f>
         <v>23.976666666666663</v>
       </c>
       <c r="F5" s="28">
-        <f>AVERAGE('2555'!F92:F121)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F92:F121)</f>
         <v>31.993333333333322</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="40">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45">
-        <f>AVERAGE('2555'!B122:B152)</f>
+      <c r="A6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B122:B152)</f>
         <v>36.650967741935482</v>
       </c>
       <c r="C6" s="27">
-        <f>AVERAGE('2555'!C122:C152)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C122:C152)</f>
         <v>38.400967741935482</v>
       </c>
       <c r="D6" s="27">
-        <f>AVERAGE('2555'!D122:D152)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D122:D152)</f>
         <v>35.489677419354841</v>
       </c>
       <c r="E6" s="27">
-        <f>AVERAGE('2555'!E122:E152)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E122:E152)</f>
         <v>22.725161290322571</v>
       </c>
       <c r="F6" s="28">
-        <f>AVERAGE('2555'!F122:F152)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F122:F152)</f>
         <v>30.510645161290334</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40">
-        <v>6</v>
-      </c>
-      <c r="B7" s="45">
-        <f>AVERAGE('2555'!B153:B182)</f>
+      <c r="A7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B153:B182)</f>
         <v>34.633333333333312</v>
       </c>
       <c r="C7" s="27">
-        <f>AVERAGE('2555'!C153:C182)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C153:C182)</f>
         <v>36.383333333333319</v>
       </c>
       <c r="D7" s="27">
-        <f>AVERAGE('2555'!D153:D182)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D153:D182)</f>
         <v>32.949999999999996</v>
       </c>
       <c r="E7" s="27">
-        <f>AVERAGE('2555'!E153:E182)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E153:E182)</f>
         <v>20.723333333333319</v>
       </c>
       <c r="F7" s="28">
-        <f>AVERAGE('2555'!F153:F182)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F153:F182)</f>
         <v>29.579999999999981</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="40">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45">
-        <f>AVERAGE('2555'!B183:B213)</f>
+      <c r="A8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B183:B213)</f>
         <v>35.357419354838719</v>
       </c>
       <c r="C8" s="27">
-        <f>AVERAGE('2555'!C183:C213)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C183:C213)</f>
         <v>37.107419354838719</v>
       </c>
       <c r="D8" s="27">
-        <f>AVERAGE('2555'!D183:D213)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D183:D213)</f>
         <v>33.45741935483872</v>
       </c>
       <c r="E8" s="27">
-        <f>AVERAGE('2555'!E183:E213)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E183:E213)</f>
         <v>21.357419354838719</v>
       </c>
       <c r="F8" s="28">
-        <f>AVERAGE('2555'!F183:F213)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F183:F213)</f>
         <v>29.73645161290322</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="40">
-        <v>8</v>
-      </c>
-      <c r="B9" s="45">
-        <f>AVERAGE('2555'!B214:B244)</f>
+      <c r="A9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B214:B244)</f>
         <v>36.112258064516105</v>
       </c>
       <c r="C9" s="27">
-        <f>AVERAGE('2555'!C214:C244)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C214:C244)</f>
         <v>38.246129032258075</v>
       </c>
       <c r="D9" s="27">
-        <f>AVERAGE('2555'!D214:D244)</f>
-        <v>34.705806451612887</v>
+        <f>AVERAGE(ราคาน้ำมัน!D183:D213)</f>
+        <v>33.45741935483872</v>
       </c>
       <c r="E9" s="27">
-        <f>AVERAGE('2555'!E214:E244)</f>
-        <v>22.467096774193561</v>
+        <f>AVERAGE(ราคาน้ำมัน!E183:E213)</f>
+        <v>21.357419354838719</v>
       </c>
       <c r="F9" s="28">
-        <f>AVERAGE('2555'!F214:F244)</f>
-        <v>29.885483870967747</v>
+        <f>AVERAGE(ราคาน้ำมัน!F183:F213)</f>
+        <v>29.73645161290322</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="40">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45">
-        <f>AVERAGE('2555'!B245:B274)</f>
+      <c r="A10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B245:B274)</f>
         <v>35.199999999999974</v>
       </c>
       <c r="C10" s="27">
-        <f>AVERAGE('2555'!C245:C274)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C245:C274)</f>
         <v>37.650000000000006</v>
       </c>
       <c r="D10" s="27">
-        <f>AVERAGE('2555'!D245:D274)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D245:D274)</f>
         <v>34.199999999999974</v>
       </c>
       <c r="E10" s="27">
-        <f>AVERAGE('2555'!E245:E274)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E245:E274)</f>
         <v>21.990000000000006</v>
       </c>
       <c r="F10" s="28">
-        <f>AVERAGE('2555'!F245:F274)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F245:F274)</f>
         <v>29.929999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40">
-        <v>10</v>
-      </c>
-      <c r="B11" s="45">
-        <f>AVERAGE('2555'!B275:B305)</f>
+      <c r="A11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B275:B305)</f>
         <v>35.257419354838689</v>
       </c>
       <c r="C11" s="27">
-        <f>AVERAGE('2555'!C275:C305)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C275:C305)</f>
         <v>37.70741935483872</v>
       </c>
       <c r="D11" s="27">
-        <f>AVERAGE('2555'!D275:D305)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D275:D305)</f>
         <v>33.257419354838689</v>
       </c>
       <c r="E11" s="27">
-        <f>AVERAGE('2555'!E275:E305)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E275:E305)</f>
         <v>21.883225806451595</v>
       </c>
       <c r="F11" s="28">
-        <f>AVERAGE('2555'!F275:F305)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F275:F305)</f>
         <v>29.789999999999988</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="40">
-        <v>11</v>
-      </c>
-      <c r="B12" s="45">
-        <f>AVERAGE('2555'!B306:B335)</f>
+      <c r="A12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="27">
+        <f>AVERAGE(ราคาน้ำมัน!B306:B335)</f>
         <v>34.689999999999991</v>
       </c>
       <c r="C12" s="27">
-        <f>AVERAGE('2555'!C306:C335)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C306:C335)</f>
         <v>37.140000000000015</v>
       </c>
       <c r="D12" s="27">
-        <f>AVERAGE('2555'!D306:D335)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D306:D335)</f>
         <v>31.689999999999994</v>
       </c>
       <c r="E12" s="27">
-        <f>AVERAGE('2555'!E306:E335)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E306:E335)</f>
         <v>21.296666666666656</v>
       </c>
       <c r="F12" s="28">
-        <f>AVERAGE('2555'!F306:F335)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F306:F335)</f>
         <v>29.789999999999988</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A13" s="41">
-        <v>12</v>
-      </c>
-      <c r="B13" s="46">
-        <f>AVERAGE('2555'!B336:B366)</f>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="29">
+        <f>AVERAGE(ราคาน้ำมัน!B336:B366)</f>
         <v>35.089677419354842</v>
       </c>
       <c r="C13" s="29">
-        <f>AVERAGE('2555'!C336:C366)</f>
+        <f>AVERAGE(ราคาน้ำมัน!C336:C366)</f>
         <v>37.539677419354845</v>
       </c>
       <c r="D13" s="29">
-        <f>AVERAGE('2555'!D336:D366)</f>
+        <f>AVERAGE(ราคาน้ำมัน!D336:D366)</f>
         <v>32.089677419354835</v>
       </c>
       <c r="E13" s="29">
-        <f>AVERAGE('2555'!E336:E366)</f>
+        <f>AVERAGE(ราคาน้ำมัน!E336:E366)</f>
         <v>21.505806451612891</v>
       </c>
       <c r="F13" s="30">
-        <f>AVERAGE('2555'!F336:F366)</f>
+        <f>AVERAGE(ราคาน้ำมัน!F336:F366)</f>
         <v>29.789999999999988</v>
       </c>
     </row>
